--- a/capiq_data/in_process_data/IQ33821.xlsx
+++ b/capiq_data/in_process_data/IQ33821.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C261FBD3-BFD0-4E6A-BE5A-AD69422D8F3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35515EF3-C33D-4CC8-9102-FC2A192A6CBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9bc24398-4360-4cc1-b0d2-5ea99cada78d"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"13288081-2234-42cb-946d-f57b941cc8b4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
+  </si>
+  <si>
+    <t>FQ22011</t>
   </si>
   <si>
     <t>FQ32011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40544</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>36.686999999999998</v>
+        <v>7.8440000000000003</v>
       </c>
       <c r="D2">
-        <v>278.79399999999998</v>
+        <v>79.918000000000006</v>
       </c>
       <c r="E2">
-        <v>138.75299999999999</v>
+        <v>51.823999999999998</v>
       </c>
       <c r="F2">
-        <v>103.089</v>
+        <v>37.540999999999997</v>
       </c>
       <c r="G2">
-        <v>627.57299999999998</v>
+        <v>468.01400000000001</v>
       </c>
       <c r="H2">
-        <v>1053.3520000000001</v>
+        <v>702.94</v>
       </c>
       <c r="I2">
-        <v>98.072999999999993</v>
+        <v>18.655000000000001</v>
       </c>
       <c r="J2">
-        <v>207.36799999999999</v>
+        <v>292.32400000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>146.643</v>
+        <v>46.677999999999997</v>
       </c>
       <c r="O2">
-        <v>394.988</v>
+        <v>350.33699999999999</v>
       </c>
       <c r="P2">
-        <v>212.53700000000001</v>
+        <v>301.67599999999999</v>
       </c>
       <c r="Q2">
-        <v>24.585000000000001</v>
+        <v>7.218</v>
       </c>
       <c r="R2">
-        <v>40544</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>658.36400000000003</v>
+        <v>352.60300000000001</v>
       </c>
       <c r="U2">
-        <v>158.386</v>
+        <v>276.63400000000001</v>
       </c>
       <c r="V2">
-        <v>63.314</v>
+        <v>39.215000000000003</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>10.446999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="Z2">
-        <v>-39.905999999999999</v>
+        <v>-12.956</v>
       </c>
       <c r="AA2">
-        <v>36.686</v>
+        <v>7.843</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>24.134</v>
+        <v>-6.8449999999999998</v>
       </c>
       <c r="D3">
-        <v>213.32599999999999</v>
+        <v>55.018999999999998</v>
       </c>
       <c r="E3">
-        <v>120.375</v>
+        <v>38.61</v>
       </c>
       <c r="F3">
-        <v>75.521000000000001</v>
+        <v>13.583</v>
       </c>
       <c r="G3">
-        <v>600.15899999999999</v>
+        <v>492.31400000000002</v>
       </c>
       <c r="H3">
-        <v>1025.393</v>
+        <v>720.93100000000004</v>
       </c>
       <c r="I3">
-        <v>89.49</v>
+        <v>14.613</v>
       </c>
       <c r="J3">
-        <v>177.34299999999999</v>
+        <v>292.7</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>134.93700000000001</v>
+        <v>28.998999999999999</v>
       </c>
       <c r="O3">
-        <v>349.03800000000001</v>
+        <v>344.43299999999999</v>
       </c>
       <c r="P3">
-        <v>181.19499999999999</v>
+        <v>300.93900000000002</v>
       </c>
       <c r="Q3">
-        <v>-26.626000000000001</v>
+        <v>-10.558</v>
       </c>
       <c r="R3">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>3726</v>
+        <v>1145</v>
       </c>
       <c r="T3">
-        <v>676.35500000000002</v>
+        <v>376.49799999999999</v>
       </c>
       <c r="U3">
-        <v>131.76</v>
+        <v>266.07600000000002</v>
       </c>
       <c r="V3">
-        <v>36.139000000000003</v>
+        <v>-11.454000000000001</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-44.826000000000001</v>
+        <v>11.228999999999999</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>3.2629999999999999</v>
       </c>
       <c r="Z3">
-        <v>-13.861000000000001</v>
+        <v>-6.7249999999999996</v>
       </c>
       <c r="AA3">
-        <v>24.134</v>
+        <v>-6.8449999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>8.9309999999999992</v>
+        <v>-28.385999999999999</v>
       </c>
       <c r="D4">
-        <v>214.191</v>
+        <v>70.052000000000007</v>
       </c>
       <c r="E4">
-        <v>115.655</v>
+        <v>26.401</v>
       </c>
       <c r="F4">
-        <v>78.168000000000006</v>
+        <v>4.1509999999999998</v>
       </c>
       <c r="G4">
-        <v>581.53499999999997</v>
+        <v>462.51600000000002</v>
       </c>
       <c r="H4">
-        <v>1006.831</v>
+        <v>709.94100000000003</v>
       </c>
       <c r="I4">
-        <v>88.558999999999997</v>
+        <v>14.471</v>
       </c>
       <c r="J4">
-        <v>113.694</v>
+        <v>293.08100000000002</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -935,81 +1055,81 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-27.187999999999999</v>
+        <v>-1.2090000000000001</v>
       </c>
       <c r="N4">
-        <v>178.79599999999999</v>
+        <v>35.313000000000002</v>
       </c>
       <c r="O4">
-        <v>326.86900000000003</v>
+        <v>357.988</v>
       </c>
       <c r="P4">
-        <v>159.13</v>
+        <v>300.11099999999999</v>
       </c>
       <c r="Q4">
-        <v>-9.0950000000000006</v>
+        <v>-61.476999999999997</v>
       </c>
       <c r="R4">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>679.96199999999999</v>
+        <v>351.95299999999997</v>
       </c>
       <c r="U4">
-        <v>122.66500000000001</v>
+        <v>204.59899999999999</v>
       </c>
       <c r="V4">
-        <v>19.058</v>
+        <v>10.986000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-35.561999999999998</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2.1909999999999998</v>
       </c>
       <c r="Z4">
-        <v>27.001999999999999</v>
+        <v>-62.503999999999998</v>
       </c>
       <c r="AA4">
-        <v>8.9309999999999992</v>
+        <v>-28.385999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40817</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>14.311</v>
+        <v>1.532</v>
       </c>
       <c r="D5">
-        <v>243.81100000000001</v>
+        <v>98.271000000000001</v>
       </c>
       <c r="E5">
-        <v>127.459</v>
+        <v>50.386000000000003</v>
       </c>
       <c r="F5">
-        <v>90.393000000000001</v>
+        <v>36.369</v>
       </c>
       <c r="G5">
-        <v>605.11500000000001</v>
+        <v>457.66800000000001</v>
       </c>
       <c r="H5">
-        <v>1017.23</v>
+        <v>712.03099999999995</v>
       </c>
       <c r="I5">
-        <v>90.186999999999998</v>
+        <v>12.988</v>
       </c>
       <c r="J5">
-        <v>115.408</v>
+        <v>293.46600000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>177.76400000000001</v>
+        <v>29.724</v>
       </c>
       <c r="O5">
-        <v>323.39299999999997</v>
+        <v>356.78</v>
       </c>
       <c r="P5">
-        <v>161.55500000000001</v>
+        <v>299.25799999999998</v>
       </c>
       <c r="Q5">
-        <v>-1.9890000000000001</v>
+        <v>-19.294</v>
       </c>
       <c r="R5">
-        <v>40817</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>693.83699999999999</v>
+        <v>355.25099999999998</v>
       </c>
       <c r="U5">
-        <v>120.676</v>
+        <v>185.30500000000001</v>
       </c>
       <c r="V5">
-        <v>38.420999999999999</v>
+        <v>13.452</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-9.6869999999999994</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="Z5">
-        <v>-22.975999999999999</v>
+        <v>-23.254000000000001</v>
       </c>
       <c r="AA5">
-        <v>14.31</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-9.3940000000000001</v>
+        <v>3.5009999999999999</v>
       </c>
       <c r="D6">
-        <v>225.42500000000001</v>
+        <v>100.551</v>
       </c>
       <c r="E6">
-        <v>115.539</v>
+        <v>45.125999999999998</v>
       </c>
       <c r="F6">
-        <v>63.561</v>
+        <v>38.893000000000001</v>
       </c>
       <c r="G6">
-        <v>588.77499999999998</v>
+        <v>454.233</v>
       </c>
       <c r="H6">
-        <v>990.33100000000002</v>
+        <v>758.37900000000002</v>
       </c>
       <c r="I6">
-        <v>76.468000000000004</v>
+        <v>18.355</v>
       </c>
       <c r="J6">
-        <v>117.173</v>
+        <v>293.85500000000002</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>166.77600000000001</v>
+        <v>40.426000000000002</v>
       </c>
       <c r="O6">
-        <v>311.38600000000002</v>
+        <v>369.62599999999998</v>
       </c>
       <c r="P6">
-        <v>157.12</v>
+        <v>298.52199999999999</v>
       </c>
       <c r="Q6">
-        <v>13.808</v>
+        <v>-67.361000000000004</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>678.94500000000005</v>
+        <v>388.75299999999999</v>
       </c>
       <c r="U6">
-        <v>134.48400000000001</v>
+        <v>117.944</v>
       </c>
       <c r="V6">
-        <v>46.154000000000003</v>
+        <v>38.774000000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-18.370999999999999</v>
+        <v>1.351</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="Z6">
-        <v>-4.9329999999999998</v>
+        <v>-68.966999999999999</v>
       </c>
       <c r="AA6">
-        <v>-9.3930000000000007</v>
+        <v>3.5009999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-12.991</v>
+        <v>2.7690000000000001</v>
       </c>
       <c r="D7">
-        <v>187.92500000000001</v>
+        <v>100.434</v>
       </c>
       <c r="E7">
-        <v>100.446</v>
+        <v>56.372999999999998</v>
       </c>
       <c r="F7">
-        <v>56.643999999999998</v>
+        <v>40.93</v>
       </c>
       <c r="G7">
-        <v>569.36699999999996</v>
+        <v>455.97</v>
       </c>
       <c r="H7">
-        <v>964.58399999999995</v>
+        <v>729</v>
       </c>
       <c r="I7">
-        <v>68.382000000000005</v>
+        <v>16.908999999999999</v>
       </c>
       <c r="J7">
-        <v>118.949</v>
+        <v>294.24799999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>148.185</v>
+        <v>34.917999999999999</v>
       </c>
       <c r="O7">
-        <v>292.25299999999999</v>
+        <v>339.315</v>
       </c>
       <c r="P7">
-        <v>151.708</v>
+        <v>297.73599999999999</v>
       </c>
       <c r="Q7">
-        <v>1.04</v>
+        <v>39.704000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>3986</v>
+        <v>1325</v>
       </c>
       <c r="T7">
-        <v>672.33100000000002</v>
+        <v>389.685</v>
       </c>
       <c r="U7">
-        <v>135.524</v>
+        <v>157.648</v>
       </c>
       <c r="V7">
-        <v>20.58</v>
+        <v>5.8579999999999997</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-6.7690000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="Z7">
-        <v>-3.9409999999999998</v>
+        <v>40.725999999999999</v>
       </c>
       <c r="AA7">
-        <v>-12.991</v>
+        <v>2.7690000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-19.138999999999999</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="D8">
-        <v>202.66</v>
+        <v>103.94199999999999</v>
       </c>
       <c r="E8">
-        <v>114.212</v>
+        <v>53.030999999999999</v>
       </c>
       <c r="F8">
-        <v>64.254000000000005</v>
+        <v>41.438000000000002</v>
       </c>
       <c r="G8">
-        <v>530.67999999999995</v>
+        <v>464.39400000000001</v>
       </c>
       <c r="H8">
-        <v>911.15499999999997</v>
+        <v>740.33299999999997</v>
       </c>
       <c r="I8">
-        <v>77.915999999999997</v>
+        <v>18.870999999999999</v>
       </c>
       <c r="J8">
-        <v>107.03700000000001</v>
+        <v>294.64600000000002</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,81 +1387,81 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-47.933</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="N8">
-        <v>131.018</v>
+        <v>41.646000000000001</v>
       </c>
       <c r="O8">
-        <v>262.584</v>
+        <v>347.40499999999997</v>
       </c>
       <c r="P8">
-        <v>107.03700000000001</v>
+        <v>297.00400000000002</v>
       </c>
       <c r="Q8">
-        <v>-8.4450000000000003</v>
+        <v>15.191000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>648.57100000000003</v>
+        <v>392.928</v>
       </c>
       <c r="U8">
-        <v>127.07899999999999</v>
+        <v>172.839</v>
       </c>
       <c r="V8">
-        <v>15.599</v>
+        <v>21.402000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-56.043999999999997</v>
+        <v>-0.216</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z8">
-        <v>41.994</v>
+        <v>9.0609999999999999</v>
       </c>
       <c r="AA8">
-        <v>-19.138999999999999</v>
+        <v>2.3490000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-16.456</v>
+        <v>6.4850000000000003</v>
       </c>
       <c r="D9">
-        <v>209.67099999999999</v>
+        <v>119.735</v>
       </c>
       <c r="E9">
-        <v>115.23399999999999</v>
+        <v>62.795999999999999</v>
       </c>
       <c r="F9">
-        <v>66.534999999999997</v>
+        <v>45.997</v>
       </c>
       <c r="G9">
-        <v>505.78300000000002</v>
+        <v>473</v>
       </c>
       <c r="H9">
-        <v>881.01</v>
+        <v>749.43899999999996</v>
       </c>
       <c r="I9">
-        <v>83.162999999999997</v>
+        <v>24.756</v>
       </c>
       <c r="J9">
-        <v>79.539000000000001</v>
+        <v>295.048</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>137.78100000000001</v>
+        <v>41.435000000000002</v>
       </c>
       <c r="O9">
-        <v>241.3</v>
+        <v>348.79300000000001</v>
       </c>
       <c r="P9">
-        <v>79.539000000000001</v>
+        <v>296.38299999999998</v>
       </c>
       <c r="Q9">
-        <v>-12.081</v>
+        <v>-0.65700000000000003</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>639.71</v>
+        <v>400.64600000000002</v>
       </c>
       <c r="U9">
-        <v>114.998</v>
+        <v>172.18199999999999</v>
       </c>
       <c r="V9">
-        <v>1.9139999999999999</v>
+        <v>-2.1760000000000002</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-34.094999999999999</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z9">
-        <v>30.997</v>
+        <v>11.795</v>
       </c>
       <c r="AA9">
-        <v>-16.456</v>
+        <v>6.4850000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-1.4430000000000001</v>
+        <v>-5.1829999999999998</v>
       </c>
       <c r="D10">
-        <v>271.21300000000002</v>
+        <v>145.81299999999999</v>
       </c>
       <c r="E10">
-        <v>145.49799999999999</v>
+        <v>62.307000000000002</v>
       </c>
       <c r="F10">
-        <v>86.81</v>
+        <v>54.426000000000002</v>
       </c>
       <c r="G10">
-        <v>534.55700000000002</v>
+        <v>400.70100000000002</v>
       </c>
       <c r="H10">
-        <v>946.42499999999995</v>
+        <v>945.08600000000001</v>
       </c>
       <c r="I10">
-        <v>127.639</v>
+        <v>29.131</v>
       </c>
       <c r="J10">
-        <v>80.769000000000005</v>
+        <v>295.45400000000001</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>29.420999999999999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>195.64</v>
+        <v>82.878</v>
       </c>
       <c r="O10">
-        <v>299.43799999999999</v>
+        <v>380.90899999999999</v>
       </c>
       <c r="P10">
-        <v>80.769000000000005</v>
+        <v>327.09300000000002</v>
       </c>
       <c r="Q10">
-        <v>-1.333</v>
+        <v>-10.807</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>646.98699999999997</v>
+        <v>564.17700000000002</v>
       </c>
       <c r="U10">
-        <v>113.66500000000001</v>
+        <v>161.375</v>
       </c>
       <c r="V10">
-        <v>43.274999999999999</v>
+        <v>23.56</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.50600000000000001</v>
+        <v>-0.53200000000000003</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="Z10">
-        <v>16.016999999999999</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="AA10">
-        <v>-1.4430000000000001</v>
+        <v>-5.1829999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-15.961</v>
+        <v>-12.986000000000001</v>
       </c>
       <c r="D11">
-        <v>280.60300000000001</v>
+        <v>138.32900000000001</v>
       </c>
       <c r="E11">
-        <v>143.64699999999999</v>
+        <v>66.849000000000004</v>
       </c>
       <c r="F11">
-        <v>93.873999999999995</v>
+        <v>40.79</v>
       </c>
       <c r="G11">
-        <v>516.23699999999997</v>
+        <v>392.62099999999998</v>
       </c>
       <c r="H11">
-        <v>931.99900000000002</v>
+        <v>932.82500000000005</v>
       </c>
       <c r="I11">
-        <v>123.468</v>
+        <v>26.693999999999999</v>
       </c>
       <c r="J11">
-        <v>82.034999999999997</v>
+        <v>295.86500000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>185.714</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="O11">
-        <v>292.98500000000001</v>
+        <v>375.42500000000001</v>
       </c>
       <c r="P11">
-        <v>82.034999999999997</v>
+        <v>297.53300000000002</v>
       </c>
       <c r="Q11">
-        <v>-12.003</v>
+        <v>3.0470000000000002</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>4191</v>
+        <v>1794</v>
       </c>
       <c r="T11">
-        <v>639.01400000000001</v>
+        <v>557.4</v>
       </c>
       <c r="U11">
-        <v>101.66200000000001</v>
+        <v>164.422</v>
       </c>
       <c r="V11">
-        <v>10.464</v>
+        <v>9.1869999999999994</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-3.6999999999999998E-2</v>
+        <v>2.9769999999999999</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="Z11">
-        <v>-1.992</v>
+        <v>9.1880000000000006</v>
       </c>
       <c r="AA11">
-        <v>-15.961</v>
+        <v>-12.986000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1.5609999999999999</v>
+        <v>-8.2219999999999995</v>
       </c>
       <c r="D12">
-        <v>292.99599999999998</v>
+        <v>131.52099999999999</v>
       </c>
       <c r="E12">
-        <v>151.512</v>
+        <v>64.055999999999997</v>
       </c>
       <c r="F12">
-        <v>93.468999999999994</v>
+        <v>41.238</v>
       </c>
       <c r="G12">
-        <v>511.53899999999999</v>
+        <v>394.91800000000001</v>
       </c>
       <c r="H12">
-        <v>921.81600000000003</v>
+        <v>933.40800000000002</v>
       </c>
       <c r="I12">
-        <v>105.602</v>
+        <v>25.372</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>296.28100000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1719,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-1.6E-2</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="N12">
-        <v>248.77199999999999</v>
+        <v>79.804000000000002</v>
       </c>
       <c r="O12">
-        <v>273.29500000000002</v>
+        <v>381.24299999999999</v>
       </c>
       <c r="P12">
-        <v>83.296999999999997</v>
+        <v>296.28100000000001</v>
       </c>
       <c r="Q12">
-        <v>10.731</v>
+        <v>3.5339999999999998</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>648.52099999999996</v>
+        <v>552.16499999999996</v>
       </c>
       <c r="U12">
-        <v>112.393</v>
+        <v>167.95599999999999</v>
       </c>
       <c r="V12">
-        <v>7.2430000000000003</v>
+        <v>23.082000000000001</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-0.84099999999999997</v>
+        <v>-0.17100000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>31.01</v>
+        <v>-9.2680000000000007</v>
       </c>
       <c r="AA12">
-        <v>1.5609999999999999</v>
+        <v>-8.2219999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>5.8920000000000003</v>
+        <v>10.589</v>
       </c>
       <c r="D13">
-        <v>310.71600000000001</v>
+        <v>163.464</v>
       </c>
       <c r="E13">
-        <v>188.715</v>
+        <v>80.733000000000004</v>
       </c>
       <c r="F13">
-        <v>104.65600000000001</v>
+        <v>63.811</v>
       </c>
       <c r="G13">
-        <v>524.18299999999999</v>
+        <v>450.73</v>
       </c>
       <c r="H13">
-        <v>930.66700000000003</v>
+        <v>980.70899999999995</v>
       </c>
       <c r="I13">
-        <v>109.014</v>
+        <v>34.567999999999998</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>324.017</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>256.45400000000001</v>
+        <v>83.56</v>
       </c>
       <c r="O13">
-        <v>279.79300000000001</v>
+        <v>412.39100000000002</v>
       </c>
       <c r="P13">
-        <v>84.58</v>
+        <v>324.017</v>
       </c>
       <c r="Q13">
-        <v>-10.904</v>
+        <v>30.077999999999999</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>650.87400000000002</v>
+        <v>568.31799999999998</v>
       </c>
       <c r="U13">
-        <v>101.489</v>
+        <v>198.03399999999999</v>
       </c>
       <c r="V13">
-        <v>21.51</v>
+        <v>26.7</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-14.891999999999999</v>
+        <v>27.216999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.996</v>
+        <v>-16.384</v>
       </c>
       <c r="AA13">
-        <v>5.8920000000000003</v>
+        <v>10.589</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>6.2350000000000003</v>
+        <v>28.2</v>
       </c>
       <c r="D14">
-        <v>288.52</v>
+        <v>192.97300000000001</v>
       </c>
       <c r="E14">
-        <v>143.684</v>
+        <v>88</v>
       </c>
       <c r="F14">
-        <v>107.523</v>
+        <v>80.418000000000006</v>
       </c>
       <c r="G14">
-        <v>526.40099999999995</v>
+        <v>461.428</v>
       </c>
       <c r="H14">
-        <v>933.99400000000003</v>
+        <v>985.59100000000001</v>
       </c>
       <c r="I14">
-        <v>102.869</v>
+        <v>34.198</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>324.32900000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>251.529</v>
+        <v>57.436999999999998</v>
       </c>
       <c r="O14">
-        <v>273.93200000000002</v>
+        <v>386.13900000000001</v>
       </c>
       <c r="P14">
-        <v>85.902000000000001</v>
+        <v>324.32900000000001</v>
       </c>
       <c r="Q14">
-        <v>15.993</v>
+        <v>-6.0129999999999999</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>660.06200000000001</v>
+        <v>599.452</v>
       </c>
       <c r="U14">
-        <v>117.482</v>
+        <v>192.02099999999999</v>
       </c>
       <c r="V14">
-        <v>70.375</v>
+        <v>38.195999999999998</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-0.71599999999999997</v>
+        <v>1.58</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-40.052</v>
+        <v>-35.701000000000001</v>
       </c>
       <c r="AA14">
-        <v>6.2350000000000003</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-1.046</v>
+        <v>-0.85899999999999999</v>
       </c>
       <c r="D15">
-        <v>255.999</v>
+        <v>163.42099999999999</v>
       </c>
       <c r="E15">
-        <v>137.417</v>
+        <v>86.287000000000006</v>
       </c>
       <c r="F15">
-        <v>99.278999999999996</v>
+        <v>60.904000000000003</v>
       </c>
       <c r="G15">
-        <v>537.41800000000001</v>
+        <v>482.78199999999998</v>
       </c>
       <c r="H15">
-        <v>920.31200000000001</v>
+        <v>988.01599999999996</v>
       </c>
       <c r="I15">
-        <v>79.783000000000001</v>
+        <v>33.465000000000003</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>324.62599999999998</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>219.97300000000001</v>
+        <v>55.884</v>
       </c>
       <c r="O15">
-        <v>243.96100000000001</v>
+        <v>384.87799999999999</v>
       </c>
       <c r="P15">
-        <v>87.263000000000005</v>
+        <v>324.68599999999998</v>
       </c>
       <c r="Q15">
-        <v>54.415999999999997</v>
+        <v>-7.806</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>3482</v>
+        <v>1895</v>
       </c>
       <c r="T15">
-        <v>676.351</v>
+        <v>603.13800000000003</v>
       </c>
       <c r="U15">
-        <v>171.898</v>
+        <v>102.965</v>
       </c>
       <c r="V15">
-        <v>31.721</v>
+        <v>29.120999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>12.204000000000001</v>
+        <v>2.6339999999999999</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Z15">
-        <v>18.585999999999999</v>
+        <v>-28.582000000000001</v>
       </c>
       <c r="AA15">
-        <v>-1.046</v>
+        <v>-0.85899999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>38.646999999999998</v>
+        <v>3.0129999999999999</v>
       </c>
       <c r="D16">
-        <v>316.32100000000003</v>
+        <v>165.774</v>
       </c>
       <c r="E16">
-        <v>184.03800000000001</v>
+        <v>81.734999999999999</v>
       </c>
       <c r="F16">
-        <v>142.26900000000001</v>
+        <v>64.887</v>
       </c>
       <c r="G16">
-        <v>558.36699999999996</v>
+        <v>494.05700000000002</v>
       </c>
       <c r="H16">
-        <v>934.42899999999997</v>
+        <v>1002.6319999999999</v>
       </c>
       <c r="I16">
-        <v>112.529</v>
+        <v>41.976999999999997</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>324.94299999999998</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +2051,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-87.503</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="N16">
-        <v>180.489</v>
+        <v>64.831999999999994</v>
       </c>
       <c r="O16">
-        <v>205.51</v>
+        <v>394.209</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>325.166</v>
       </c>
       <c r="Q16">
-        <v>-74.338999999999999</v>
+        <v>12.272</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>728.91899999999998</v>
+        <v>608.423</v>
       </c>
       <c r="U16">
-        <v>97.558999999999997</v>
+        <v>191.53700000000001</v>
       </c>
       <c r="V16">
-        <v>36.261000000000003</v>
+        <v>29.402000000000001</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-81.221000000000004</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>3.1E-2</v>
       </c>
       <c r="Z16">
-        <v>-26.992000000000001</v>
+        <v>5.5890000000000004</v>
       </c>
       <c r="AA16">
-        <v>38.646999999999998</v>
+        <v>3.0129999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>63.311</v>
+        <v>-6.6669999999999998</v>
       </c>
       <c r="D17">
-        <v>362.66699999999997</v>
+        <v>149.107</v>
       </c>
       <c r="E17">
-        <v>218.00800000000001</v>
+        <v>86.495000000000005</v>
       </c>
       <c r="F17">
-        <v>167.45099999999999</v>
+        <v>49.067</v>
       </c>
       <c r="G17">
-        <v>662.41</v>
+        <v>389.84699999999998</v>
       </c>
       <c r="H17">
-        <v>1057.6110000000001</v>
+        <v>905.35500000000002</v>
       </c>
       <c r="I17">
-        <v>128.40899999999999</v>
+        <v>46.058</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>225.798</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>208.74799999999999</v>
+        <v>70.331999999999994</v>
       </c>
       <c r="O17">
-        <v>255.70599999999999</v>
+        <v>300.53399999999999</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>225.971</v>
       </c>
       <c r="Q17">
-        <v>13.116</v>
+        <v>-46.74</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>801.90499999999997</v>
+        <v>604.82100000000003</v>
       </c>
       <c r="U17">
-        <v>110.675</v>
+        <v>93.247</v>
       </c>
       <c r="V17">
-        <v>58.7</v>
+        <v>-1.6779999999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-1.4690000000000001</v>
+        <v>-97.911000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-24.684999999999999</v>
+        <v>75.756</v>
       </c>
       <c r="AA17">
-        <v>63.311</v>
+        <v>-6.6669999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42000</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>87.863</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D18">
-        <v>397.08600000000001</v>
+        <v>168.917</v>
       </c>
       <c r="E18">
-        <v>215.24799999999999</v>
+        <v>75.31</v>
       </c>
       <c r="F18">
-        <v>190.702</v>
+        <v>58.366999999999997</v>
       </c>
       <c r="G18">
-        <v>755.25699999999995</v>
+        <v>370.601</v>
       </c>
       <c r="H18">
-        <v>1165.615</v>
+        <v>908.64</v>
       </c>
       <c r="I18">
-        <v>130.46100000000001</v>
+        <v>42.100999999999999</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>225.97</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>219.75299999999999</v>
+        <v>70.558999999999997</v>
       </c>
       <c r="O18">
-        <v>270.053</v>
+        <v>301.06</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>226.08600000000001</v>
       </c>
       <c r="Q18">
-        <v>7.4180000000000001</v>
+        <v>-41.182000000000002</v>
       </c>
       <c r="R18">
-        <v>42000</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>895.56200000000001</v>
+        <v>607.58000000000004</v>
       </c>
       <c r="U18">
-        <v>118.093</v>
+        <v>99.314999999999998</v>
       </c>
       <c r="V18">
-        <v>72.138000000000005</v>
+        <v>25.913</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>4.2</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-48.47</v>
+        <v>-35.290999999999997</v>
       </c>
       <c r="AA18">
-        <v>87.863</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42091</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>6.4820000000000002</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>634.89200000000005</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>353.83</v>
+        <v>74.545000000000002</v>
       </c>
       <c r="F19">
-        <v>261.73599999999999</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1500.105</v>
+        <v>326.44900000000001</v>
       </c>
       <c r="H19">
-        <v>6892.3789999999999</v>
+        <v>859.74599999999998</v>
       </c>
       <c r="I19">
-        <v>182.46799999999999</v>
+        <v>44.545000000000002</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>226.16800000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>325.31</v>
+        <v>79.652000000000001</v>
       </c>
       <c r="O19">
-        <v>719.21900000000005</v>
+        <v>311.69600000000003</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>226.16800000000001</v>
       </c>
       <c r="Q19">
-        <v>181.721</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>42091</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>6700</v>
+        <v>2570</v>
       </c>
       <c r="T19">
-        <v>6173.16</v>
+        <v>548.04999999999995</v>
       </c>
       <c r="U19">
-        <v>299.81400000000002</v>
+        <v>26.015999999999998</v>
       </c>
       <c r="V19">
-        <v>138.52500000000001</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-34.408000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-26.105</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>6.4820000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42182</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>2.036</v>
+        <v>-2.7170000000000001</v>
       </c>
       <c r="D20">
-        <v>673.64099999999996</v>
+        <v>159.38399999999999</v>
       </c>
       <c r="E20">
-        <v>408.07400000000001</v>
+        <v>80.445999999999998</v>
       </c>
       <c r="F20">
-        <v>279.517</v>
+        <v>54.31</v>
       </c>
       <c r="G20">
-        <v>1579.9860000000001</v>
+        <v>314.99400000000003</v>
       </c>
       <c r="H20">
-        <v>6909.87</v>
+        <v>848.00599999999997</v>
       </c>
       <c r="I20">
-        <v>206.071</v>
+        <v>44.192</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>226.345</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,81 +2383,81 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="N20">
-        <v>335.49599999999998</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="O20">
-        <v>731.67899999999997</v>
+        <v>301.755</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>226.345</v>
       </c>
       <c r="Q20">
-        <v>25.788</v>
+        <v>15.760999999999999</v>
       </c>
       <c r="R20">
-        <v>42182</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>6178.1909999999998</v>
+        <v>546.25099999999998</v>
       </c>
       <c r="U20">
-        <v>325.60199999999998</v>
+        <v>41.777000000000001</v>
       </c>
       <c r="V20">
-        <v>141.43199999999999</v>
+        <v>-1.7290000000000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-40.472999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>14.118</v>
+        <v>37.457000000000001</v>
       </c>
       <c r="AA20">
-        <v>2.036</v>
+        <v>-2.7170000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42280</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>4.4480000000000004</v>
+        <v>5.9370000000000003</v>
       </c>
       <c r="D21">
-        <v>708.33500000000004</v>
+        <v>177.00399999999999</v>
       </c>
       <c r="E21">
-        <v>438.26600000000002</v>
+        <v>88.974999999999994</v>
       </c>
       <c r="F21">
-        <v>284.84800000000001</v>
+        <v>63.749000000000002</v>
       </c>
       <c r="G21">
-        <v>1275.982</v>
+        <v>333.517</v>
       </c>
       <c r="H21">
-        <v>6532.0969999999998</v>
+        <v>866.54</v>
       </c>
       <c r="I21">
-        <v>204.857</v>
+        <v>49.981000000000002</v>
       </c>
       <c r="J21">
-        <v>75</v>
+        <v>226.52</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>355.47399999999999</v>
+        <v>77.022000000000006</v>
       </c>
       <c r="O21">
-        <v>819.99900000000002</v>
+        <v>309.214</v>
       </c>
       <c r="P21">
-        <v>75</v>
+        <v>226.52</v>
       </c>
       <c r="Q21">
-        <v>-156.005</v>
+        <v>18.195</v>
       </c>
       <c r="R21">
-        <v>42280</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>5712.098</v>
+        <v>557.32600000000002</v>
       </c>
       <c r="U21">
-        <v>169.59700000000001</v>
+        <v>59.972000000000001</v>
       </c>
       <c r="V21">
-        <v>168.79499999999999</v>
+        <v>10.717000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-425.44499999999999</v>
+        <v>2.99</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>205.845</v>
+        <v>20.466999999999999</v>
       </c>
       <c r="AA21">
-        <v>4.4480000000000004</v>
+        <v>5.9370000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-11.127000000000001</v>
+        <v>14.678000000000001</v>
       </c>
       <c r="D22">
-        <v>620.68100000000004</v>
+        <v>207.97399999999999</v>
       </c>
       <c r="E22">
-        <v>296.59199999999998</v>
+        <v>99.403000000000006</v>
       </c>
       <c r="F22">
-        <v>230.988</v>
+        <v>74.980999999999995</v>
       </c>
       <c r="G22">
-        <v>1843.7170000000001</v>
+        <v>366.62799999999999</v>
       </c>
       <c r="H22">
-        <v>7011.11</v>
+        <v>891.93100000000004</v>
       </c>
       <c r="I22">
-        <v>188.52099999999999</v>
+        <v>55.744</v>
       </c>
       <c r="J22">
-        <v>987.88800000000003</v>
+        <v>226.69499999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>300.685</v>
+        <v>87.197000000000003</v>
       </c>
       <c r="O22">
-        <v>1517.038</v>
+        <v>318.95400000000001</v>
       </c>
       <c r="P22">
-        <v>987.88800000000003</v>
+        <v>226.69499999999999</v>
       </c>
       <c r="Q22">
-        <v>682</v>
+        <v>10.085000000000001</v>
       </c>
       <c r="R22">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>5494.0720000000001</v>
+        <v>572.97699999999998</v>
       </c>
       <c r="U22">
-        <v>851.59699999999998</v>
+        <v>70.057000000000002</v>
       </c>
       <c r="V22">
-        <v>218.006</v>
+        <v>17.837</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>672.61599999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-171.90700000000001</v>
+        <v>4.7359999999999998</v>
       </c>
       <c r="AA22">
-        <v>-11.127000000000001</v>
+        <v>14.678000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-24.202000000000002</v>
+        <v>-1.5680000000000001</v>
       </c>
       <c r="D23">
-        <v>608.06899999999996</v>
+        <v>225.88499999999999</v>
       </c>
       <c r="E23">
-        <v>316.35599999999999</v>
+        <v>115.715</v>
       </c>
       <c r="F23">
-        <v>254.2</v>
+        <v>75.983000000000004</v>
       </c>
       <c r="G23">
-        <v>1509.21</v>
+        <v>406.435</v>
       </c>
       <c r="H23">
-        <v>6596.8190000000004</v>
+        <v>938.83500000000004</v>
       </c>
       <c r="I23">
-        <v>205.364</v>
+        <v>68.313999999999993</v>
       </c>
       <c r="J23">
-        <v>988.13</v>
+        <v>226.876</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>373.80099999999999</v>
+        <v>103.032</v>
       </c>
       <c r="O23">
-        <v>1597.1469999999999</v>
+        <v>339.47800000000001</v>
       </c>
       <c r="P23">
-        <v>988.13</v>
+        <v>226.876</v>
       </c>
       <c r="Q23">
-        <v>-425.71600000000001</v>
+        <v>11.531000000000001</v>
       </c>
       <c r="R23">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="S23">
-        <v>7300</v>
+        <v>3011</v>
       </c>
       <c r="T23">
-        <v>4999.6719999999996</v>
+        <v>599.35699999999997</v>
       </c>
       <c r="U23">
-        <v>425.88099999999997</v>
+        <v>81.587999999999994</v>
       </c>
       <c r="V23">
-        <v>159.69399999999999</v>
+        <v>26.861000000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-489.55</v>
+        <v>4.7510000000000003</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1.4259999999999999</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="AA23">
-        <v>-24.202000000000002</v>
+        <v>-1.5680000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-5.6749999999999998</v>
+        <v>13.933999999999999</v>
       </c>
       <c r="D24">
-        <v>698.53700000000003</v>
+        <v>238.33500000000001</v>
       </c>
       <c r="E24">
-        <v>400.67899999999997</v>
+        <v>122.789</v>
       </c>
       <c r="F24">
-        <v>276.47500000000002</v>
+        <v>79.656000000000006</v>
       </c>
       <c r="G24">
-        <v>1485.42</v>
+        <v>433.49099999999999</v>
       </c>
       <c r="H24">
-        <v>6687.9870000000001</v>
+        <v>983.97699999999998</v>
       </c>
       <c r="I24">
-        <v>263.47800000000001</v>
+        <v>68.619</v>
       </c>
       <c r="J24">
-        <v>988.37199999999996</v>
+        <v>247.983</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>420.33300000000003</v>
+        <v>106.498</v>
       </c>
       <c r="O24">
-        <v>1654.4110000000001</v>
+        <v>360.32400000000001</v>
       </c>
       <c r="P24">
-        <v>988.37199999999996</v>
+        <v>251.80500000000001</v>
       </c>
       <c r="Q24">
-        <v>7.1529999999999996</v>
+        <v>22.914999999999999</v>
       </c>
       <c r="R24">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="S24">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>5033.576</v>
+        <v>623.65300000000002</v>
       </c>
       <c r="U24">
-        <v>433.03399999999999</v>
+        <v>104.503</v>
       </c>
       <c r="V24">
-        <v>59.389000000000003</v>
+        <v>25.128</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>23.154</v>
+        <v>30.751999999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>172.92</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="AA24">
-        <v>-5.6749999999999998</v>
+        <v>13.933999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>11.847</v>
+        <v>-19.975999999999999</v>
       </c>
       <c r="D25">
-        <v>864.69799999999998</v>
+        <v>246.91900000000001</v>
       </c>
       <c r="E25">
-        <v>491.48899999999998</v>
+        <v>133.441</v>
       </c>
       <c r="F25">
-        <v>316.79899999999998</v>
+        <v>86.141000000000005</v>
       </c>
       <c r="G25">
-        <v>1582.5360000000001</v>
+        <v>452.97699999999998</v>
       </c>
       <c r="H25">
-        <v>6751.6220000000003</v>
+        <v>986.88099999999997</v>
       </c>
       <c r="I25">
-        <v>323.69600000000003</v>
+        <v>76.064999999999998</v>
       </c>
       <c r="J25">
-        <v>988.625</v>
+        <v>247.18</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>557.44500000000005</v>
+        <v>117.39</v>
       </c>
       <c r="O25">
-        <v>1775.2460000000001</v>
+        <v>370.82299999999998</v>
       </c>
       <c r="P25">
-        <v>988.625</v>
+        <v>251.077</v>
       </c>
       <c r="Q25">
-        <v>36.338999999999999</v>
+        <v>-24.62</v>
       </c>
       <c r="R25">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>4976.3760000000002</v>
+        <v>616.05799999999999</v>
       </c>
       <c r="U25">
-        <v>469.21899999999999</v>
+        <v>79.882999999999996</v>
       </c>
       <c r="V25">
-        <v>249.99799999999999</v>
+        <v>30.295999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-102.18600000000001</v>
+        <v>1.865</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>13.872999999999999</v>
+        <v>-21.045999999999999</v>
       </c>
       <c r="AA25">
-        <v>11.847</v>
+        <v>-19.977</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-78.638000000000005</v>
+        <v>59.326000000000001</v>
       </c>
       <c r="D26">
-        <v>826.34699999999998</v>
+        <v>281.09100000000001</v>
       </c>
       <c r="E26">
-        <v>421.1</v>
+        <v>119.092</v>
       </c>
       <c r="F26">
-        <v>310.642</v>
+        <v>100.497</v>
       </c>
       <c r="G26">
-        <v>1487.9169999999999</v>
+        <v>507.51400000000001</v>
       </c>
       <c r="H26">
-        <v>6624.9110000000001</v>
+        <v>1045.42</v>
       </c>
       <c r="I26">
-        <v>287.95299999999997</v>
+        <v>65.945999999999998</v>
       </c>
       <c r="J26">
-        <v>988.88599999999997</v>
+        <v>246.358</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>548.596</v>
+        <v>111.723</v>
       </c>
       <c r="O26">
-        <v>1761.7950000000001</v>
+        <v>365.38200000000001</v>
       </c>
       <c r="P26">
-        <v>988.88599999999997</v>
+        <v>250.333</v>
       </c>
       <c r="Q26">
-        <v>26.568999999999999</v>
+        <v>81.153999999999996</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>4863.116</v>
+        <v>680.03800000000001</v>
       </c>
       <c r="U26">
-        <v>495.81099999999998</v>
+        <v>161.03700000000001</v>
       </c>
       <c r="V26">
-        <v>220.36199999999999</v>
+        <v>64.793000000000006</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-56.043999999999997</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>3.8719999999999999</v>
       </c>
       <c r="AA26">
-        <v>-78.638000000000005</v>
+        <v>59.326000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>55.908000000000001</v>
+        <v>30.132000000000001</v>
       </c>
       <c r="D27">
-        <v>642.99199999999996</v>
+        <v>257.27</v>
       </c>
       <c r="E27">
-        <v>357.94799999999998</v>
+        <v>102.307</v>
       </c>
       <c r="F27">
-        <v>231.596</v>
+        <v>90.566000000000003</v>
       </c>
       <c r="G27">
-        <v>1461.605</v>
+        <v>580.43899999999996</v>
       </c>
       <c r="H27">
-        <v>6522.3230000000003</v>
+        <v>1089.634</v>
       </c>
       <c r="I27">
-        <v>216.24600000000001</v>
+        <v>61.203000000000003</v>
       </c>
       <c r="J27">
-        <v>989.154</v>
+        <v>245.709</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>418.82799999999997</v>
+        <v>113.21599999999999</v>
       </c>
       <c r="O27">
-        <v>1625.6010000000001</v>
+        <v>369.96699999999998</v>
       </c>
       <c r="P27">
-        <v>989.154</v>
+        <v>249.86</v>
       </c>
       <c r="Q27">
-        <v>49.655999999999999</v>
+        <v>67.903000000000006</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>8600</v>
+        <v>3252</v>
       </c>
       <c r="T27">
-        <v>4896.7219999999998</v>
+        <v>719.66700000000003</v>
       </c>
       <c r="U27">
-        <v>545.46299999999997</v>
+        <v>228.94</v>
       </c>
       <c r="V27">
-        <v>247.071</v>
+        <v>58.223999999999997</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-30.574000000000002</v>
+        <v>6.0149999999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-0.46899999999999997</v>
+        <v>-4.5990000000000002</v>
       </c>
       <c r="AA27">
-        <v>55.908000000000001</v>
+        <v>30.132000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-30.623999999999999</v>
+        <v>23.600999999999999</v>
       </c>
       <c r="D28">
-        <v>640.83100000000002</v>
+        <v>211.59899999999999</v>
       </c>
       <c r="E28">
-        <v>373.71100000000001</v>
+        <v>85.596000000000004</v>
       </c>
       <c r="F28">
-        <v>236.37700000000001</v>
+        <v>66.697999999999993</v>
       </c>
       <c r="G28">
-        <v>1467.2159999999999</v>
+        <v>948.51499999999999</v>
       </c>
       <c r="H28">
-        <v>6442.6959999999999</v>
+        <v>1475.5989999999999</v>
       </c>
       <c r="I28">
-        <v>215.03299999999999</v>
+        <v>58.267000000000003</v>
       </c>
       <c r="J28">
-        <v>989.42</v>
+        <v>617.90099999999995</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,81 +3047,81 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-1.008</v>
       </c>
       <c r="N28">
-        <v>361.91800000000001</v>
+        <v>95.623999999999995</v>
       </c>
       <c r="O28">
-        <v>1530.0150000000001</v>
+        <v>720.97799999999995</v>
       </c>
       <c r="P28">
-        <v>989.42</v>
+        <v>622.13300000000004</v>
       </c>
       <c r="Q28">
-        <v>-32.808999999999997</v>
+        <v>61.784999999999997</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>4912.6809999999996</v>
+        <v>754.62099999999998</v>
       </c>
       <c r="U28">
-        <v>512.63099999999997</v>
+        <v>290.81900000000002</v>
       </c>
       <c r="V28">
-        <v>103.636</v>
+        <v>4.657</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-19.803000000000001</v>
+        <v>376.51299999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-301.51299999999998</v>
       </c>
       <c r="AA28">
-        <v>-30.623999999999999</v>
+        <v>23.600999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>35.918999999999997</v>
+        <v>14.462999999999999</v>
       </c>
       <c r="D29">
-        <v>821.58299999999997</v>
+        <v>255.845</v>
       </c>
       <c r="E29">
-        <v>459.76100000000002</v>
+        <v>104.235</v>
       </c>
       <c r="F29">
-        <v>321.02199999999999</v>
+        <v>82.265000000000001</v>
       </c>
       <c r="G29">
-        <v>1608.2080000000001</v>
+        <v>978.75099999999998</v>
       </c>
       <c r="H29">
-        <v>6478.08</v>
+        <v>1516.011</v>
       </c>
       <c r="I29">
-        <v>212.75</v>
+        <v>69.558000000000007</v>
       </c>
       <c r="J29">
-        <v>989.69200000000001</v>
+        <v>617.41899999999998</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>423.00200000000001</v>
+        <v>106.864</v>
       </c>
       <c r="O29">
-        <v>1573.5039999999999</v>
+        <v>735.42700000000002</v>
       </c>
       <c r="P29">
-        <v>989.69200000000001</v>
+        <v>621.73199999999997</v>
       </c>
       <c r="Q29">
-        <v>62.253</v>
+        <v>38.372999999999998</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>4904.576</v>
+        <v>780.58399999999995</v>
       </c>
       <c r="U29">
-        <v>574.87300000000005</v>
+        <v>329.19200000000001</v>
       </c>
       <c r="V29">
-        <v>219.858</v>
+        <v>39.381</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-60.26</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>24.158000000000001</v>
       </c>
       <c r="AA29">
-        <v>35.918999999999997</v>
+        <v>14.462</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-33.082000000000001</v>
+        <v>-15.077</v>
       </c>
       <c r="D30">
-        <v>845.73900000000003</v>
+        <v>268.18200000000002</v>
       </c>
       <c r="E30">
-        <v>448.84800000000001</v>
+        <v>119.176</v>
       </c>
       <c r="F30">
-        <v>336.92700000000002</v>
+        <v>70.31</v>
       </c>
       <c r="G30">
-        <v>1814.1659999999999</v>
+        <v>785</v>
       </c>
       <c r="H30">
-        <v>6526.6469999999999</v>
+        <v>2160.2629999999999</v>
       </c>
       <c r="I30">
-        <v>192.04599999999999</v>
+        <v>92.277000000000001</v>
       </c>
       <c r="J30">
-        <v>1088.73</v>
+        <v>617.04100000000005</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>384.51799999999997</v>
+        <v>145.43199999999999</v>
       </c>
       <c r="O30">
-        <v>1705.569</v>
+        <v>812.48599999999999</v>
       </c>
       <c r="P30">
-        <v>1088.73</v>
+        <v>621.43799999999999</v>
       </c>
       <c r="Q30">
-        <v>266.45800000000003</v>
+        <v>-133.893</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="S30">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>4821.0780000000004</v>
+        <v>1347.777</v>
       </c>
       <c r="U30">
-        <v>841.32600000000002</v>
+        <v>195.20500000000001</v>
       </c>
       <c r="V30">
-        <v>270.06799999999998</v>
+        <v>54.996000000000002</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>27.003</v>
+        <v>0.313</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>121.3</v>
       </c>
       <c r="AA30">
-        <v>-33.082000000000001</v>
+        <v>-15.077</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-12.500999999999999</v>
+        <v>-17.241</v>
       </c>
       <c r="D31">
-        <v>665.38300000000004</v>
+        <v>220.64400000000001</v>
       </c>
       <c r="E31">
-        <v>345.95699999999999</v>
+        <v>115.629</v>
       </c>
       <c r="F31">
-        <v>252.64</v>
+        <v>55.683</v>
       </c>
       <c r="G31">
-        <v>1843.8050000000001</v>
+        <v>622.03300000000002</v>
       </c>
       <c r="H31">
-        <v>6381.5190000000002</v>
+        <v>2017.1949999999999</v>
       </c>
       <c r="I31">
-        <v>213.19300000000001</v>
+        <v>78.674000000000007</v>
       </c>
       <c r="J31">
-        <v>983.29</v>
+        <v>616.69799999999998</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>441.279</v>
+        <v>135.59100000000001</v>
       </c>
       <c r="O31">
-        <v>1605.9549999999999</v>
+        <v>778.55799999999999</v>
       </c>
       <c r="P31">
-        <v>983.29</v>
+        <v>621.17999999999995</v>
       </c>
       <c r="Q31">
-        <v>84.721000000000004</v>
+        <v>-65.454999999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
-        <v>8300</v>
+        <v>4646</v>
       </c>
       <c r="T31">
-        <v>4775.5640000000003</v>
+        <v>1238.6369999999999</v>
       </c>
       <c r="U31">
-        <v>926.03700000000003</v>
+        <v>129.75</v>
       </c>
       <c r="V31">
-        <v>258.95800000000003</v>
+        <v>-39.139000000000003</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-143.78800000000001</v>
+        <v>-103.294</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>124.809</v>
       </c>
       <c r="AA31">
-        <v>-12.500999999999999</v>
+        <v>-17.241</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-29.992999999999999</v>
+        <v>-26.524999999999999</v>
       </c>
       <c r="D32">
-        <v>692.67</v>
+        <v>240.49199999999999</v>
       </c>
       <c r="E32">
-        <v>360.85700000000003</v>
+        <v>117.246</v>
       </c>
       <c r="F32">
-        <v>236.733</v>
+        <v>72.328999999999994</v>
       </c>
       <c r="G32">
-        <v>1367.7059999999999</v>
+        <v>588.245</v>
       </c>
       <c r="H32">
-        <v>5782.3320000000003</v>
+        <v>1984.68</v>
       </c>
       <c r="I32">
-        <v>219.143</v>
+        <v>63.993000000000002</v>
       </c>
       <c r="J32">
-        <v>558.28</v>
+        <v>616.21100000000001</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3259,81 +3379,81 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-458.17200000000003</v>
+        <v>-1.2869999999999999</v>
       </c>
       <c r="N32">
-        <v>403.36399999999998</v>
+        <v>127.807</v>
       </c>
       <c r="O32">
-        <v>1104.2270000000001</v>
+        <v>766.34100000000001</v>
       </c>
       <c r="P32">
-        <v>558.28</v>
+        <v>620.97400000000005</v>
       </c>
       <c r="Q32">
-        <v>-592.01800000000003</v>
+        <v>-13.169</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>4678.1049999999996</v>
+        <v>1218.3389999999999</v>
       </c>
       <c r="U32">
-        <v>334.03899999999999</v>
+        <v>116.581</v>
       </c>
       <c r="V32">
-        <v>75.259</v>
+        <v>-2.8610000000000002</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-555.303</v>
+        <v>-0.27100000000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-57.728999999999999</v>
+        <v>22.148</v>
       </c>
       <c r="AA32">
-        <v>-29.992999999999999</v>
+        <v>-26.524999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>32.084000000000003</v>
+        <v>-14.227</v>
       </c>
       <c r="D33">
-        <v>884.44299999999998</v>
+        <v>271.66899999999998</v>
       </c>
       <c r="E33">
-        <v>491.18299999999999</v>
+        <v>122.592</v>
       </c>
       <c r="F33">
-        <v>353.51400000000001</v>
+        <v>76.768000000000001</v>
       </c>
       <c r="G33">
-        <v>1619.77</v>
+        <v>615.12699999999995</v>
       </c>
       <c r="H33">
-        <v>5947.0609999999997</v>
+        <v>1991.155</v>
       </c>
       <c r="I33">
-        <v>229.00899999999999</v>
+        <v>67.754999999999995</v>
       </c>
       <c r="J33">
-        <v>735.09799999999996</v>
+        <v>615.57600000000002</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>462.38299999999998</v>
+        <v>142.75299999999999</v>
       </c>
       <c r="O33">
-        <v>1314.924</v>
+        <v>775.42399999999998</v>
       </c>
       <c r="P33">
-        <v>735.09799999999996</v>
+        <v>615.57600000000002</v>
       </c>
       <c r="Q33">
-        <v>223.88399999999999</v>
+        <v>52.692999999999998</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
-        <v>8200</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>4632.1369999999997</v>
+        <v>1215.731</v>
       </c>
       <c r="U33">
-        <v>557.92399999999998</v>
+        <v>169.274</v>
       </c>
       <c r="V33">
-        <v>214.53700000000001</v>
+        <v>39.582000000000001</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>32.344000000000001</v>
+        <v>1.165</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>58.131999999999998</v>
+        <v>30.082999999999998</v>
       </c>
       <c r="AA33">
-        <v>32.084000000000003</v>
+        <v>-14.227</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>69.516999999999996</v>
+        <v>-788.47400000000005</v>
       </c>
       <c r="D34">
-        <v>832.33</v>
+        <v>202.02500000000001</v>
       </c>
       <c r="E34">
-        <v>420.90300000000002</v>
+        <v>75.873000000000005</v>
       </c>
       <c r="F34">
-        <v>341.44299999999998</v>
+        <v>38.411999999999999</v>
       </c>
       <c r="G34">
-        <v>1615.5360000000001</v>
+        <v>508.39100000000002</v>
       </c>
       <c r="H34">
-        <v>5806.2910000000002</v>
+        <v>1121.268</v>
       </c>
       <c r="I34">
-        <v>229.26599999999999</v>
+        <v>49.707999999999998</v>
       </c>
       <c r="J34">
-        <v>714.40200000000004</v>
+        <v>581.98400000000004</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>413.93200000000002</v>
+        <v>102.739</v>
       </c>
       <c r="O34">
-        <v>1228.971</v>
+        <v>712.82100000000003</v>
       </c>
       <c r="P34">
-        <v>714.40200000000004</v>
+        <v>586.73199999999997</v>
       </c>
       <c r="Q34">
-        <v>91.796000000000006</v>
+        <v>-23.872</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="S34">
-        <v>8300</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>4577.32</v>
+        <v>408.447</v>
       </c>
       <c r="U34">
-        <v>649.71100000000001</v>
+        <v>145.40199999999999</v>
       </c>
       <c r="V34">
-        <v>333.22300000000001</v>
+        <v>45.776000000000003</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-168.56700000000001</v>
+        <v>-23.550999999999998</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-39.811</v>
       </c>
       <c r="AA34">
-        <v>69.516999999999996</v>
+        <v>-788.47400000000005</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>61.517000000000003</v>
+        <v>-58.677999999999997</v>
       </c>
       <c r="D35">
-        <v>680.88199999999995</v>
+        <v>172.32</v>
       </c>
       <c r="E35">
-        <v>378.17200000000003</v>
+        <v>90.230999999999995</v>
       </c>
       <c r="F35">
-        <v>284.839</v>
+        <v>50.854999999999997</v>
       </c>
       <c r="G35">
-        <v>1684.8409999999999</v>
+        <v>517.43399999999997</v>
       </c>
       <c r="H35">
-        <v>5808.0240000000003</v>
+        <v>1088.6420000000001</v>
       </c>
       <c r="I35">
-        <v>233.30699999999999</v>
+        <v>46.744999999999997</v>
       </c>
       <c r="J35">
-        <v>919.19</v>
+        <v>505.10700000000003</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>435.61399999999998</v>
+        <v>99.343999999999994</v>
       </c>
       <c r="O35">
-        <v>1448.345</v>
+        <v>656.68</v>
       </c>
       <c r="P35">
-        <v>921.01499999999999</v>
+        <v>509.94600000000003</v>
       </c>
       <c r="Q35">
-        <v>61.317999999999998</v>
+        <v>27.587</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="S35">
-        <v>8100</v>
+        <v>4095</v>
       </c>
       <c r="T35">
-        <v>4359.6790000000001</v>
+        <v>431.96199999999999</v>
       </c>
       <c r="U35">
-        <v>711.03499999999997</v>
+        <v>172.989</v>
       </c>
       <c r="V35">
-        <v>187.345</v>
+        <v>29.664000000000001</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-85.138000000000005</v>
+        <v>2.359</v>
       </c>
       <c r="Y35">
-        <v>1.7450000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.77900000000000003</v>
       </c>
       <c r="AA35">
-        <v>61.517000000000003</v>
+        <v>-58.677999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>39.540999999999997</v>
+        <v>4.7839999999999998</v>
       </c>
       <c r="D36">
-        <v>775.59799999999996</v>
+        <v>212.54</v>
       </c>
       <c r="E36">
-        <v>326.714</v>
+        <v>98.1</v>
       </c>
       <c r="F36">
-        <v>312.06200000000001</v>
+        <v>74.001000000000005</v>
       </c>
       <c r="G36">
-        <v>1556.8330000000001</v>
+        <v>574.77700000000004</v>
       </c>
       <c r="H36">
-        <v>5926.3810000000003</v>
+        <v>1103.3910000000001</v>
       </c>
       <c r="I36">
-        <v>224.73500000000001</v>
+        <v>61.715000000000003</v>
       </c>
       <c r="J36">
-        <v>1016.28</v>
+        <v>280.68799999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3591,81 +3711,81 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-7.7889999999999997</v>
       </c>
       <c r="N36">
-        <v>452.14600000000002</v>
+        <v>338.25</v>
       </c>
       <c r="O36">
-        <v>1589.038</v>
+        <v>662.73599999999999</v>
       </c>
       <c r="P36">
-        <v>1093.462</v>
+        <v>505.49299999999999</v>
       </c>
       <c r="Q36">
-        <v>-81.432000000000002</v>
+        <v>-47.783999999999999</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4337.3429999999998</v>
+        <v>440.65499999999997</v>
       </c>
       <c r="U36">
-        <v>629.59900000000005</v>
+        <v>125.205</v>
       </c>
       <c r="V36">
-        <v>257.11799999999999</v>
+        <v>36.390999999999998</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>3.8660000000000001</v>
+        <v>-7.6909999999999998</v>
       </c>
       <c r="Y36">
-        <v>62.395000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1.95</v>
+        <v>-75.228999999999999</v>
       </c>
       <c r="AA36">
-        <v>39.540999999999997</v>
+        <v>4.7839999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>83.037999999999997</v>
+        <v>14.579000000000001</v>
       </c>
       <c r="D37">
-        <v>806.69799999999998</v>
+        <v>254.75700000000001</v>
       </c>
       <c r="E37">
-        <v>405.108</v>
+        <v>100.854</v>
       </c>
       <c r="F37">
-        <v>330.19400000000002</v>
+        <v>91.549000000000007</v>
       </c>
       <c r="G37">
-        <v>1551.8140000000001</v>
+        <v>648.88599999999997</v>
       </c>
       <c r="H37">
-        <v>5848.5709999999999</v>
+        <v>1154.0129999999999</v>
       </c>
       <c r="I37">
-        <v>213.93600000000001</v>
+        <v>73.495000000000005</v>
       </c>
       <c r="J37">
-        <v>1013.94</v>
+        <v>283.85700000000003</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>449.62900000000002</v>
+        <v>349.61799999999999</v>
       </c>
       <c r="O37">
-        <v>1583.077</v>
+        <v>687.22199999999998</v>
       </c>
       <c r="P37">
-        <v>1090.184</v>
+        <v>508.755</v>
       </c>
       <c r="Q37">
-        <v>-42.709000000000003</v>
+        <v>-8.5380000000000003</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4265.4939999999997</v>
+        <v>466.791</v>
       </c>
       <c r="U37">
-        <v>586.79399999999998</v>
+        <v>116.667</v>
       </c>
       <c r="V37">
-        <v>173.41200000000001</v>
+        <v>47.183999999999997</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-170.143</v>
+        <v>-1.2230000000000001</v>
       </c>
       <c r="Y37">
-        <v>59.045999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-54.343000000000004</v>
       </c>
       <c r="AA37">
-        <v>83.037999999999997</v>
+        <v>14.579000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>161.35599999999999</v>
+        <v>24.928000000000001</v>
       </c>
       <c r="D38">
-        <v>869.07299999999998</v>
+        <v>250.27099999999999</v>
       </c>
       <c r="E38">
-        <v>409.83499999999998</v>
+        <v>97.561000000000007</v>
       </c>
       <c r="F38">
-        <v>375.87200000000001</v>
+        <v>91.19</v>
       </c>
       <c r="G38">
-        <v>2067.672</v>
+        <v>495.25799999999998</v>
       </c>
       <c r="H38">
-        <v>6519.5029999999997</v>
+        <v>980.49800000000005</v>
       </c>
       <c r="I38">
-        <v>239.18</v>
+        <v>69.897000000000006</v>
       </c>
       <c r="J38">
-        <v>1566.6030000000001</v>
+        <v>286.81599999999997</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>491.20499999999998</v>
+        <v>143.30099999999999</v>
       </c>
       <c r="O38">
-        <v>2180.1260000000002</v>
+        <v>483.69200000000001</v>
       </c>
       <c r="P38">
-        <v>1642.1279999999999</v>
+        <v>314.99099999999999</v>
       </c>
       <c r="Q38">
-        <v>510.93900000000002</v>
+        <v>4.8339999999999996</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>4339.3770000000004</v>
+        <v>496.80599999999998</v>
       </c>
       <c r="U38">
-        <v>1097.7239999999999</v>
+        <v>121.501</v>
       </c>
       <c r="V38">
-        <v>300.721</v>
+        <v>44.512999999999998</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>445.42500000000001</v>
+        <v>-198.42500000000001</v>
       </c>
       <c r="Y38">
-        <v>56.954999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>160.33099999999999</v>
       </c>
       <c r="AA38">
-        <v>161.35599999999999</v>
+        <v>24.928000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>50.39</v>
+        <v>26.728000000000002</v>
       </c>
       <c r="D39">
-        <v>787.77200000000005</v>
+        <v>260.82499999999999</v>
       </c>
       <c r="E39">
-        <v>367.17200000000003</v>
+        <v>108.21899999999999</v>
       </c>
       <c r="F39">
-        <v>337.75900000000001</v>
+        <v>98.427999999999997</v>
       </c>
       <c r="G39">
-        <v>1690.502</v>
+        <v>548.82399999999996</v>
       </c>
       <c r="H39">
-        <v>6560.6819999999998</v>
+        <v>1014.008</v>
       </c>
       <c r="I39">
-        <v>246.95400000000001</v>
+        <v>82.447999999999993</v>
       </c>
       <c r="J39">
-        <v>1566.808</v>
+        <v>289.83699999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>539.00300000000004</v>
+        <v>152.733</v>
       </c>
       <c r="O39">
-        <v>2268.0169999999998</v>
+        <v>483.92399999999998</v>
       </c>
       <c r="P39">
-        <v>1648.1179999999999</v>
+        <v>317.79000000000002</v>
       </c>
       <c r="Q39">
-        <v>-382.56799999999998</v>
+        <v>-16.722999999999999</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="S39">
-        <v>7900</v>
+        <v>3687</v>
       </c>
       <c r="T39">
-        <v>4292.665</v>
+        <v>530.08399999999995</v>
       </c>
       <c r="U39">
-        <v>714.93899999999996</v>
+        <v>104.77800000000001</v>
       </c>
       <c r="V39">
-        <v>214.39500000000001</v>
+        <v>57.57</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-113.589</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="Y39">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-71.891999999999996</v>
       </c>
       <c r="AA39">
-        <v>50.39</v>
+        <v>26.728000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>96.921999999999997</v>
+        <v>28.341000000000001</v>
       </c>
       <c r="D40">
-        <v>787.45100000000002</v>
+        <v>273.84199999999998</v>
       </c>
       <c r="E40">
-        <v>325.99299999999999</v>
+        <v>129.82599999999999</v>
       </c>
       <c r="F40">
-        <v>325.78899999999999</v>
+        <v>102.407</v>
       </c>
       <c r="G40">
-        <v>2079.3290000000002</v>
+        <v>610.55100000000004</v>
       </c>
       <c r="H40">
-        <v>6882.6859999999997</v>
+        <v>1062.1199999999999</v>
       </c>
       <c r="I40">
-        <v>225.905</v>
+        <v>98.290999999999997</v>
       </c>
       <c r="J40">
-        <v>1867.6859999999999</v>
+        <v>290.43099999999998</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3923,81 +4043,81 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-1.25</v>
+        <v>-24.135000000000002</v>
       </c>
       <c r="N40">
-        <v>509.33199999999999</v>
+        <v>166.67400000000001</v>
       </c>
       <c r="O40">
-        <v>2531.4409999999998</v>
+        <v>498.54899999999998</v>
       </c>
       <c r="P40">
-        <v>1876.0889999999999</v>
+        <v>298.154</v>
       </c>
       <c r="Q40">
-        <v>421.28199999999998</v>
+        <v>15.683999999999999</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4351.2449999999999</v>
+        <v>563.57100000000003</v>
       </c>
       <c r="U40">
-        <v>1136.3019999999999</v>
+        <v>120.462</v>
       </c>
       <c r="V40">
-        <v>214.28100000000001</v>
+        <v>52.63</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>229.84100000000001</v>
+        <v>-24.106999999999999</v>
       </c>
       <c r="Y40">
-        <v>1.8160000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-6.37</v>
       </c>
       <c r="AA40">
-        <v>96.921999999999997</v>
+        <v>28.341000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44107</v>
+        <v>40453</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>136.917</v>
+        <v>35.396000000000001</v>
       </c>
       <c r="D41">
-        <v>1060.2919999999999</v>
+        <v>285.79399999999998</v>
       </c>
       <c r="E41">
-        <v>485.1</v>
+        <v>134.739</v>
       </c>
       <c r="F41">
-        <v>491.55</v>
+        <v>108.655</v>
       </c>
       <c r="G41">
-        <v>3062.7260000000001</v>
+        <v>568.57299999999998</v>
       </c>
       <c r="H41">
-        <v>7824.4219999999996</v>
+        <v>1005.6</v>
       </c>
       <c r="I41">
-        <v>242.14699999999999</v>
+        <v>98.194000000000003</v>
       </c>
       <c r="J41">
-        <v>1762.79</v>
+        <v>204.21700000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1477.0170000000001</v>
+        <v>157.57900000000001</v>
       </c>
       <c r="O41">
-        <v>3417.2559999999999</v>
+        <v>401.90699999999998</v>
       </c>
       <c r="P41">
-        <v>2669.482</v>
+        <v>210.67599999999999</v>
       </c>
       <c r="Q41">
-        <v>864.01300000000003</v>
+        <v>13.339</v>
       </c>
       <c r="R41">
-        <v>44107</v>
+        <v>40453</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4407.1660000000002</v>
+        <v>603.69299999999998</v>
       </c>
       <c r="U41">
-        <v>2000.2570000000001</v>
+        <v>133.80099999999999</v>
       </c>
       <c r="V41">
-        <v>280.96800000000002</v>
+        <v>61.304000000000002</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>670.59400000000005</v>
+        <v>-98.861999999999995</v>
       </c>
       <c r="Y41">
-        <v>1.6060000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>55.042999999999999</v>
       </c>
       <c r="AA41">
-        <v>136.917</v>
+        <v>35.396000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44198</v>
+        <v>40544</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>36.686999999999998</v>
+      </c>
+      <c r="D42">
+        <v>278.79399999999998</v>
+      </c>
+      <c r="E42">
+        <v>138.75299999999999</v>
+      </c>
+      <c r="F42">
+        <v>103.089</v>
+      </c>
+      <c r="G42">
+        <v>627.57299999999998</v>
+      </c>
+      <c r="H42">
+        <v>1053.3520000000001</v>
+      </c>
+      <c r="I42">
+        <v>98.072999999999993</v>
+      </c>
+      <c r="J42">
+        <v>207.36799999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>146.643</v>
+      </c>
+      <c r="O42">
+        <v>394.988</v>
+      </c>
+      <c r="P42">
+        <v>212.53700000000001</v>
+      </c>
+      <c r="Q42">
+        <v>24.585000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40544</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>658.36400000000003</v>
+      </c>
+      <c r="U42">
+        <v>158.386</v>
+      </c>
+      <c r="V42">
+        <v>63.314</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>10.446999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-39.905999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>36.686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40635</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>24.134</v>
+      </c>
+      <c r="D43">
+        <v>213.32599999999999</v>
+      </c>
+      <c r="E43">
+        <v>120.375</v>
+      </c>
+      <c r="F43">
+        <v>75.521000000000001</v>
+      </c>
+      <c r="G43">
+        <v>600.15899999999999</v>
+      </c>
+      <c r="H43">
+        <v>1025.393</v>
+      </c>
+      <c r="I43">
+        <v>89.49</v>
+      </c>
+      <c r="J43">
+        <v>177.34299999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>134.93700000000001</v>
+      </c>
+      <c r="O43">
+        <v>349.03800000000001</v>
+      </c>
+      <c r="P43">
+        <v>181.19499999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-26.626000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40635</v>
+      </c>
+      <c r="S43">
+        <v>3726</v>
+      </c>
+      <c r="T43">
+        <v>676.35500000000002</v>
+      </c>
+      <c r="U43">
+        <v>131.76</v>
+      </c>
+      <c r="V43">
+        <v>36.139000000000003</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-44.826000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-13.861000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>24.134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40726</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>8.9309999999999992</v>
+      </c>
+      <c r="D44">
+        <v>214.191</v>
+      </c>
+      <c r="E44">
+        <v>115.655</v>
+      </c>
+      <c r="F44">
+        <v>78.168000000000006</v>
+      </c>
+      <c r="G44">
+        <v>581.53499999999997</v>
+      </c>
+      <c r="H44">
+        <v>1006.831</v>
+      </c>
+      <c r="I44">
+        <v>88.558999999999997</v>
+      </c>
+      <c r="J44">
+        <v>113.694</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-27.187999999999999</v>
+      </c>
+      <c r="N44">
+        <v>178.79599999999999</v>
+      </c>
+      <c r="O44">
+        <v>326.86900000000003</v>
+      </c>
+      <c r="P44">
+        <v>159.13</v>
+      </c>
+      <c r="Q44">
+        <v>-9.0950000000000006</v>
+      </c>
+      <c r="R44">
+        <v>40726</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>679.96199999999999</v>
+      </c>
+      <c r="U44">
+        <v>122.66500000000001</v>
+      </c>
+      <c r="V44">
+        <v>19.058</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-35.561999999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>27.001999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>8.9309999999999992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>14.311</v>
+      </c>
+      <c r="D45">
+        <v>243.81100000000001</v>
+      </c>
+      <c r="E45">
+        <v>127.459</v>
+      </c>
+      <c r="F45">
+        <v>90.393000000000001</v>
+      </c>
+      <c r="G45">
+        <v>605.11500000000001</v>
+      </c>
+      <c r="H45">
+        <v>1017.23</v>
+      </c>
+      <c r="I45">
+        <v>90.186999999999998</v>
+      </c>
+      <c r="J45">
+        <v>115.408</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>177.76400000000001</v>
+      </c>
+      <c r="O45">
+        <v>323.39299999999997</v>
+      </c>
+      <c r="P45">
+        <v>161.55500000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-1.9890000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40817</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>693.83699999999999</v>
+      </c>
+      <c r="U45">
+        <v>120.676</v>
+      </c>
+      <c r="V45">
+        <v>38.420999999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-9.6869999999999994</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-22.975999999999999</v>
+      </c>
+      <c r="AA45">
+        <v>14.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-9.3940000000000001</v>
+      </c>
+      <c r="D46">
+        <v>225.42500000000001</v>
+      </c>
+      <c r="E46">
+        <v>115.539</v>
+      </c>
+      <c r="F46">
+        <v>63.561</v>
+      </c>
+      <c r="G46">
+        <v>588.77499999999998</v>
+      </c>
+      <c r="H46">
+        <v>990.33100000000002</v>
+      </c>
+      <c r="I46">
+        <v>76.468000000000004</v>
+      </c>
+      <c r="J46">
+        <v>117.173</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>166.77600000000001</v>
+      </c>
+      <c r="O46">
+        <v>311.38600000000002</v>
+      </c>
+      <c r="P46">
+        <v>157.12</v>
+      </c>
+      <c r="Q46">
+        <v>13.808</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>678.94500000000005</v>
+      </c>
+      <c r="U46">
+        <v>134.48400000000001</v>
+      </c>
+      <c r="V46">
+        <v>46.154000000000003</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-18.370999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-4.9329999999999998</v>
+      </c>
+      <c r="AA46">
+        <v>-9.3930000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-12.991</v>
+      </c>
+      <c r="D47">
+        <v>187.92500000000001</v>
+      </c>
+      <c r="E47">
+        <v>100.446</v>
+      </c>
+      <c r="F47">
+        <v>56.643999999999998</v>
+      </c>
+      <c r="G47">
+        <v>569.36699999999996</v>
+      </c>
+      <c r="H47">
+        <v>964.58399999999995</v>
+      </c>
+      <c r="I47">
+        <v>68.382000000000005</v>
+      </c>
+      <c r="J47">
+        <v>118.949</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>148.185</v>
+      </c>
+      <c r="O47">
+        <v>292.25299999999999</v>
+      </c>
+      <c r="P47">
+        <v>151.708</v>
+      </c>
+      <c r="Q47">
+        <v>1.04</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>3986</v>
+      </c>
+      <c r="T47">
+        <v>672.33100000000002</v>
+      </c>
+      <c r="U47">
+        <v>135.524</v>
+      </c>
+      <c r="V47">
+        <v>20.58</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-6.7690000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-3.9409999999999998</v>
+      </c>
+      <c r="AA47">
+        <v>-12.991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-19.138999999999999</v>
+      </c>
+      <c r="D48">
+        <v>202.66</v>
+      </c>
+      <c r="E48">
+        <v>114.212</v>
+      </c>
+      <c r="F48">
+        <v>64.254000000000005</v>
+      </c>
+      <c r="G48">
+        <v>530.67999999999995</v>
+      </c>
+      <c r="H48">
+        <v>911.15499999999997</v>
+      </c>
+      <c r="I48">
+        <v>77.915999999999997</v>
+      </c>
+      <c r="J48">
+        <v>107.03700000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-47.933</v>
+      </c>
+      <c r="N48">
+        <v>131.018</v>
+      </c>
+      <c r="O48">
+        <v>262.584</v>
+      </c>
+      <c r="P48">
+        <v>107.03700000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-8.4450000000000003</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>648.57100000000003</v>
+      </c>
+      <c r="U48">
+        <v>127.07899999999999</v>
+      </c>
+      <c r="V48">
+        <v>15.599</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-56.043999999999997</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>41.994</v>
+      </c>
+      <c r="AA48">
+        <v>-19.138999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-16.456</v>
+      </c>
+      <c r="D49">
+        <v>209.67099999999999</v>
+      </c>
+      <c r="E49">
+        <v>115.23399999999999</v>
+      </c>
+      <c r="F49">
+        <v>66.534999999999997</v>
+      </c>
+      <c r="G49">
+        <v>505.78300000000002</v>
+      </c>
+      <c r="H49">
+        <v>881.01</v>
+      </c>
+      <c r="I49">
+        <v>83.162999999999997</v>
+      </c>
+      <c r="J49">
+        <v>79.539000000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>137.78100000000001</v>
+      </c>
+      <c r="O49">
+        <v>241.3</v>
+      </c>
+      <c r="P49">
+        <v>79.539000000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-12.081</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>639.71</v>
+      </c>
+      <c r="U49">
+        <v>114.998</v>
+      </c>
+      <c r="V49">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-34.094999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>30.997</v>
+      </c>
+      <c r="AA49">
+        <v>-16.456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-1.4430000000000001</v>
+      </c>
+      <c r="D50">
+        <v>271.21300000000002</v>
+      </c>
+      <c r="E50">
+        <v>145.49799999999999</v>
+      </c>
+      <c r="F50">
+        <v>86.81</v>
+      </c>
+      <c r="G50">
+        <v>534.55700000000002</v>
+      </c>
+      <c r="H50">
+        <v>946.42499999999995</v>
+      </c>
+      <c r="I50">
+        <v>127.639</v>
+      </c>
+      <c r="J50">
+        <v>80.769000000000005</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>195.64</v>
+      </c>
+      <c r="O50">
+        <v>299.43799999999999</v>
+      </c>
+      <c r="P50">
+        <v>80.769000000000005</v>
+      </c>
+      <c r="Q50">
+        <v>-1.333</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>646.98699999999997</v>
+      </c>
+      <c r="U50">
+        <v>113.66500000000001</v>
+      </c>
+      <c r="V50">
+        <v>43.274999999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>16.016999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>-1.4430000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-15.961</v>
+      </c>
+      <c r="D51">
+        <v>280.60300000000001</v>
+      </c>
+      <c r="E51">
+        <v>143.64699999999999</v>
+      </c>
+      <c r="F51">
+        <v>93.873999999999995</v>
+      </c>
+      <c r="G51">
+        <v>516.23699999999997</v>
+      </c>
+      <c r="H51">
+        <v>931.99900000000002</v>
+      </c>
+      <c r="I51">
+        <v>123.468</v>
+      </c>
+      <c r="J51">
+        <v>82.034999999999997</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>185.714</v>
+      </c>
+      <c r="O51">
+        <v>292.98500000000001</v>
+      </c>
+      <c r="P51">
+        <v>82.034999999999997</v>
+      </c>
+      <c r="Q51">
+        <v>-12.003</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>4191</v>
+      </c>
+      <c r="T51">
+        <v>639.01400000000001</v>
+      </c>
+      <c r="U51">
+        <v>101.66200000000001</v>
+      </c>
+      <c r="V51">
+        <v>10.464</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-1.992</v>
+      </c>
+      <c r="AA51">
+        <v>-15.961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="D52">
+        <v>292.99599999999998</v>
+      </c>
+      <c r="E52">
+        <v>151.512</v>
+      </c>
+      <c r="F52">
+        <v>93.468999999999994</v>
+      </c>
+      <c r="G52">
+        <v>511.53899999999999</v>
+      </c>
+      <c r="H52">
+        <v>921.81600000000003</v>
+      </c>
+      <c r="I52">
+        <v>105.602</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="N52">
+        <v>248.77199999999999</v>
+      </c>
+      <c r="O52">
+        <v>273.29500000000002</v>
+      </c>
+      <c r="P52">
+        <v>83.296999999999997</v>
+      </c>
+      <c r="Q52">
+        <v>10.731</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>648.52099999999996</v>
+      </c>
+      <c r="U52">
+        <v>112.393</v>
+      </c>
+      <c r="V52">
+        <v>7.2430000000000003</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-0.84099999999999997</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>31.01</v>
+      </c>
+      <c r="AA52">
+        <v>1.5609999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>5.8920000000000003</v>
+      </c>
+      <c r="D53">
+        <v>310.71600000000001</v>
+      </c>
+      <c r="E53">
+        <v>188.715</v>
+      </c>
+      <c r="F53">
+        <v>104.65600000000001</v>
+      </c>
+      <c r="G53">
+        <v>524.18299999999999</v>
+      </c>
+      <c r="H53">
+        <v>930.66700000000003</v>
+      </c>
+      <c r="I53">
+        <v>109.014</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>256.45400000000001</v>
+      </c>
+      <c r="O53">
+        <v>279.79300000000001</v>
+      </c>
+      <c r="P53">
+        <v>84.58</v>
+      </c>
+      <c r="Q53">
+        <v>-10.904</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>650.87400000000002</v>
+      </c>
+      <c r="U53">
+        <v>101.489</v>
+      </c>
+      <c r="V53">
+        <v>21.51</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-14.891999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-0.996</v>
+      </c>
+      <c r="AA53">
+        <v>5.8920000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>6.2350000000000003</v>
+      </c>
+      <c r="D54">
+        <v>288.52</v>
+      </c>
+      <c r="E54">
+        <v>143.684</v>
+      </c>
+      <c r="F54">
+        <v>107.523</v>
+      </c>
+      <c r="G54">
+        <v>526.40099999999995</v>
+      </c>
+      <c r="H54">
+        <v>933.99400000000003</v>
+      </c>
+      <c r="I54">
+        <v>102.869</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>251.529</v>
+      </c>
+      <c r="O54">
+        <v>273.93200000000002</v>
+      </c>
+      <c r="P54">
+        <v>85.902000000000001</v>
+      </c>
+      <c r="Q54">
+        <v>15.993</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>660.06200000000001</v>
+      </c>
+      <c r="U54">
+        <v>117.482</v>
+      </c>
+      <c r="V54">
+        <v>70.375</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-0.71599999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-40.052</v>
+      </c>
+      <c r="AA54">
+        <v>6.2350000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>-1.046</v>
+      </c>
+      <c r="D55">
+        <v>255.999</v>
+      </c>
+      <c r="E55">
+        <v>137.417</v>
+      </c>
+      <c r="F55">
+        <v>99.278999999999996</v>
+      </c>
+      <c r="G55">
+        <v>537.41800000000001</v>
+      </c>
+      <c r="H55">
+        <v>920.31200000000001</v>
+      </c>
+      <c r="I55">
+        <v>79.783000000000001</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>219.97300000000001</v>
+      </c>
+      <c r="O55">
+        <v>243.96100000000001</v>
+      </c>
+      <c r="P55">
+        <v>87.263000000000005</v>
+      </c>
+      <c r="Q55">
+        <v>54.415999999999997</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>3482</v>
+      </c>
+      <c r="T55">
+        <v>676.351</v>
+      </c>
+      <c r="U55">
+        <v>171.898</v>
+      </c>
+      <c r="V55">
+        <v>31.721</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>12.204000000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>18.585999999999999</v>
+      </c>
+      <c r="AA55">
+        <v>-1.046</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>38.646999999999998</v>
+      </c>
+      <c r="D56">
+        <v>316.32100000000003</v>
+      </c>
+      <c r="E56">
+        <v>184.03800000000001</v>
+      </c>
+      <c r="F56">
+        <v>142.26900000000001</v>
+      </c>
+      <c r="G56">
+        <v>558.36699999999996</v>
+      </c>
+      <c r="H56">
+        <v>934.42899999999997</v>
+      </c>
+      <c r="I56">
+        <v>112.529</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-87.503</v>
+      </c>
+      <c r="N56">
+        <v>180.489</v>
+      </c>
+      <c r="O56">
+        <v>205.51</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>-74.338999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>728.91899999999998</v>
+      </c>
+      <c r="U56">
+        <v>97.558999999999997</v>
+      </c>
+      <c r="V56">
+        <v>36.261000000000003</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-81.221000000000004</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-26.992000000000001</v>
+      </c>
+      <c r="AA56">
+        <v>38.646999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>63.311</v>
+      </c>
+      <c r="D57">
+        <v>362.66699999999997</v>
+      </c>
+      <c r="E57">
+        <v>218.00800000000001</v>
+      </c>
+      <c r="F57">
+        <v>167.45099999999999</v>
+      </c>
+      <c r="G57">
+        <v>662.41</v>
+      </c>
+      <c r="H57">
+        <v>1057.6110000000001</v>
+      </c>
+      <c r="I57">
+        <v>128.40899999999999</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>208.74799999999999</v>
+      </c>
+      <c r="O57">
+        <v>255.70599999999999</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>13.116</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>801.90499999999997</v>
+      </c>
+      <c r="U57">
+        <v>110.675</v>
+      </c>
+      <c r="V57">
+        <v>58.7</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-1.4690000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-24.684999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>63.311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>87.863</v>
+      </c>
+      <c r="D58">
+        <v>397.08600000000001</v>
+      </c>
+      <c r="E58">
+        <v>215.24799999999999</v>
+      </c>
+      <c r="F58">
+        <v>190.702</v>
+      </c>
+      <c r="G58">
+        <v>755.25699999999995</v>
+      </c>
+      <c r="H58">
+        <v>1165.615</v>
+      </c>
+      <c r="I58">
+        <v>130.46100000000001</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>219.75299999999999</v>
+      </c>
+      <c r="O58">
+        <v>270.053</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>7.4180000000000001</v>
+      </c>
+      <c r="R58">
+        <v>42000</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>895.56200000000001</v>
+      </c>
+      <c r="U58">
+        <v>118.093</v>
+      </c>
+      <c r="V58">
+        <v>72.138000000000005</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>4.2</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-48.47</v>
+      </c>
+      <c r="AA58">
+        <v>87.863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42091</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="D59">
+        <v>634.89200000000005</v>
+      </c>
+      <c r="E59">
+        <v>353.83</v>
+      </c>
+      <c r="F59">
+        <v>261.73599999999999</v>
+      </c>
+      <c r="G59">
+        <v>1500.105</v>
+      </c>
+      <c r="H59">
+        <v>6892.3789999999999</v>
+      </c>
+      <c r="I59">
+        <v>182.46799999999999</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>325.31</v>
+      </c>
+      <c r="O59">
+        <v>719.21900000000005</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>181.721</v>
+      </c>
+      <c r="R59">
+        <v>42091</v>
+      </c>
+      <c r="S59">
+        <v>6700</v>
+      </c>
+      <c r="T59">
+        <v>6173.16</v>
+      </c>
+      <c r="U59">
+        <v>299.81400000000002</v>
+      </c>
+      <c r="V59">
+        <v>138.52500000000001</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-34.408000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-26.105</v>
+      </c>
+      <c r="AA59">
+        <v>6.4820000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>2.036</v>
+      </c>
+      <c r="D60">
+        <v>673.64099999999996</v>
+      </c>
+      <c r="E60">
+        <v>408.07400000000001</v>
+      </c>
+      <c r="F60">
+        <v>279.517</v>
+      </c>
+      <c r="G60">
+        <v>1579.9860000000001</v>
+      </c>
+      <c r="H60">
+        <v>6909.87</v>
+      </c>
+      <c r="I60">
+        <v>206.071</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>335.49599999999998</v>
+      </c>
+      <c r="O60">
+        <v>731.67899999999997</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>25.788</v>
+      </c>
+      <c r="R60">
+        <v>42182</v>
+      </c>
+      <c r="S60">
+        <v>6700</v>
+      </c>
+      <c r="T60">
+        <v>6178.1909999999998</v>
+      </c>
+      <c r="U60">
+        <v>325.60199999999998</v>
+      </c>
+      <c r="V60">
+        <v>141.43199999999999</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-40.472999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>14.118</v>
+      </c>
+      <c r="AA60">
+        <v>2.036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>4.4480000000000004</v>
+      </c>
+      <c r="D61">
+        <v>708.33500000000004</v>
+      </c>
+      <c r="E61">
+        <v>438.26600000000002</v>
+      </c>
+      <c r="F61">
+        <v>284.84800000000001</v>
+      </c>
+      <c r="G61">
+        <v>1275.982</v>
+      </c>
+      <c r="H61">
+        <v>6532.0969999999998</v>
+      </c>
+      <c r="I61">
+        <v>204.857</v>
+      </c>
+      <c r="J61">
+        <v>75</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>355.47399999999999</v>
+      </c>
+      <c r="O61">
+        <v>819.99900000000002</v>
+      </c>
+      <c r="P61">
+        <v>75</v>
+      </c>
+      <c r="Q61">
+        <v>-156.005</v>
+      </c>
+      <c r="R61">
+        <v>42280</v>
+      </c>
+      <c r="S61">
+        <v>7000</v>
+      </c>
+      <c r="T61">
+        <v>5712.098</v>
+      </c>
+      <c r="U61">
+        <v>169.59700000000001</v>
+      </c>
+      <c r="V61">
+        <v>168.79499999999999</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-425.44499999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>205.845</v>
+      </c>
+      <c r="AA61">
+        <v>4.4480000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42371</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-11.127000000000001</v>
+      </c>
+      <c r="D62">
+        <v>620.68100000000004</v>
+      </c>
+      <c r="E62">
+        <v>296.59199999999998</v>
+      </c>
+      <c r="F62">
+        <v>230.988</v>
+      </c>
+      <c r="G62">
+        <v>1843.7170000000001</v>
+      </c>
+      <c r="H62">
+        <v>7011.11</v>
+      </c>
+      <c r="I62">
+        <v>188.52099999999999</v>
+      </c>
+      <c r="J62">
+        <v>987.88800000000003</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>300.685</v>
+      </c>
+      <c r="O62">
+        <v>1517.038</v>
+      </c>
+      <c r="P62">
+        <v>987.88800000000003</v>
+      </c>
+      <c r="Q62">
+        <v>682</v>
+      </c>
+      <c r="R62">
+        <v>42371</v>
+      </c>
+      <c r="S62">
+        <v>7000</v>
+      </c>
+      <c r="T62">
+        <v>5494.0720000000001</v>
+      </c>
+      <c r="U62">
+        <v>851.59699999999998</v>
+      </c>
+      <c r="V62">
+        <v>218.006</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>672.61599999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-171.90700000000001</v>
+      </c>
+      <c r="AA62">
+        <v>-11.127000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-24.202000000000002</v>
+      </c>
+      <c r="D63">
+        <v>608.06899999999996</v>
+      </c>
+      <c r="E63">
+        <v>316.35599999999999</v>
+      </c>
+      <c r="F63">
+        <v>254.2</v>
+      </c>
+      <c r="G63">
+        <v>1509.21</v>
+      </c>
+      <c r="H63">
+        <v>6596.8190000000004</v>
+      </c>
+      <c r="I63">
+        <v>205.364</v>
+      </c>
+      <c r="J63">
+        <v>988.13</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>373.80099999999999</v>
+      </c>
+      <c r="O63">
+        <v>1597.1469999999999</v>
+      </c>
+      <c r="P63">
+        <v>988.13</v>
+      </c>
+      <c r="Q63">
+        <v>-425.71600000000001</v>
+      </c>
+      <c r="R63">
+        <v>42462</v>
+      </c>
+      <c r="S63">
+        <v>7300</v>
+      </c>
+      <c r="T63">
+        <v>4999.6719999999996</v>
+      </c>
+      <c r="U63">
+        <v>425.88099999999997</v>
+      </c>
+      <c r="V63">
+        <v>159.69399999999999</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-489.55</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>-24.202000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-5.6749999999999998</v>
+      </c>
+      <c r="D64">
+        <v>698.53700000000003</v>
+      </c>
+      <c r="E64">
+        <v>400.67899999999997</v>
+      </c>
+      <c r="F64">
+        <v>276.47500000000002</v>
+      </c>
+      <c r="G64">
+        <v>1485.42</v>
+      </c>
+      <c r="H64">
+        <v>6687.9870000000001</v>
+      </c>
+      <c r="I64">
+        <v>263.47800000000001</v>
+      </c>
+      <c r="J64">
+        <v>988.37199999999996</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>420.33300000000003</v>
+      </c>
+      <c r="O64">
+        <v>1654.4110000000001</v>
+      </c>
+      <c r="P64">
+        <v>988.37199999999996</v>
+      </c>
+      <c r="Q64">
+        <v>7.1529999999999996</v>
+      </c>
+      <c r="R64">
+        <v>42553</v>
+      </c>
+      <c r="S64">
+        <v>7600</v>
+      </c>
+      <c r="T64">
+        <v>5033.576</v>
+      </c>
+      <c r="U64">
+        <v>433.03399999999999</v>
+      </c>
+      <c r="V64">
+        <v>59.389000000000003</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>23.154</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>172.92</v>
+      </c>
+      <c r="AA64">
+        <v>-5.6749999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>11.847</v>
+      </c>
+      <c r="D65">
+        <v>864.69799999999998</v>
+      </c>
+      <c r="E65">
+        <v>491.48899999999998</v>
+      </c>
+      <c r="F65">
+        <v>316.79899999999998</v>
+      </c>
+      <c r="G65">
+        <v>1582.5360000000001</v>
+      </c>
+      <c r="H65">
+        <v>6751.6220000000003</v>
+      </c>
+      <c r="I65">
+        <v>323.69600000000003</v>
+      </c>
+      <c r="J65">
+        <v>988.625</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>557.44500000000005</v>
+      </c>
+      <c r="O65">
+        <v>1775.2460000000001</v>
+      </c>
+      <c r="P65">
+        <v>988.625</v>
+      </c>
+      <c r="Q65">
+        <v>36.338999999999999</v>
+      </c>
+      <c r="R65">
+        <v>42644</v>
+      </c>
+      <c r="S65">
+        <v>8000</v>
+      </c>
+      <c r="T65">
+        <v>4976.3760000000002</v>
+      </c>
+      <c r="U65">
+        <v>469.21899999999999</v>
+      </c>
+      <c r="V65">
+        <v>249.99799999999999</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-102.18600000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>13.872999999999999</v>
+      </c>
+      <c r="AA65">
+        <v>11.847</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-78.638000000000005</v>
+      </c>
+      <c r="D66">
+        <v>826.34699999999998</v>
+      </c>
+      <c r="E66">
+        <v>421.1</v>
+      </c>
+      <c r="F66">
+        <v>310.642</v>
+      </c>
+      <c r="G66">
+        <v>1487.9169999999999</v>
+      </c>
+      <c r="H66">
+        <v>6624.9110000000001</v>
+      </c>
+      <c r="I66">
+        <v>287.95299999999997</v>
+      </c>
+      <c r="J66">
+        <v>988.88599999999997</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>548.596</v>
+      </c>
+      <c r="O66">
+        <v>1761.7950000000001</v>
+      </c>
+      <c r="P66">
+        <v>988.88599999999997</v>
+      </c>
+      <c r="Q66">
+        <v>26.568999999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>8500</v>
+      </c>
+      <c r="T66">
+        <v>4863.116</v>
+      </c>
+      <c r="U66">
+        <v>495.81099999999998</v>
+      </c>
+      <c r="V66">
+        <v>220.36199999999999</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-56.043999999999997</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-78.638000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>55.908000000000001</v>
+      </c>
+      <c r="D67">
+        <v>642.99199999999996</v>
+      </c>
+      <c r="E67">
+        <v>357.94799999999998</v>
+      </c>
+      <c r="F67">
+        <v>231.596</v>
+      </c>
+      <c r="G67">
+        <v>1461.605</v>
+      </c>
+      <c r="H67">
+        <v>6522.3230000000003</v>
+      </c>
+      <c r="I67">
+        <v>216.24600000000001</v>
+      </c>
+      <c r="J67">
+        <v>989.154</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>418.82799999999997</v>
+      </c>
+      <c r="O67">
+        <v>1625.6010000000001</v>
+      </c>
+      <c r="P67">
+        <v>989.154</v>
+      </c>
+      <c r="Q67">
+        <v>49.655999999999999</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>8600</v>
+      </c>
+      <c r="T67">
+        <v>4896.7219999999998</v>
+      </c>
+      <c r="U67">
+        <v>545.46299999999997</v>
+      </c>
+      <c r="V67">
+        <v>247.071</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-30.574000000000002</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="AA67">
+        <v>55.908000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-30.623999999999999</v>
+      </c>
+      <c r="D68">
+        <v>640.83100000000002</v>
+      </c>
+      <c r="E68">
+        <v>373.71100000000001</v>
+      </c>
+      <c r="F68">
+        <v>236.37700000000001</v>
+      </c>
+      <c r="G68">
+        <v>1467.2159999999999</v>
+      </c>
+      <c r="H68">
+        <v>6442.6959999999999</v>
+      </c>
+      <c r="I68">
+        <v>215.03299999999999</v>
+      </c>
+      <c r="J68">
+        <v>989.42</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>361.91800000000001</v>
+      </c>
+      <c r="O68">
+        <v>1530.0150000000001</v>
+      </c>
+      <c r="P68">
+        <v>989.42</v>
+      </c>
+      <c r="Q68">
+        <v>-32.808999999999997</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>8700</v>
+      </c>
+      <c r="T68">
+        <v>4912.6809999999996</v>
+      </c>
+      <c r="U68">
+        <v>512.63099999999997</v>
+      </c>
+      <c r="V68">
+        <v>103.636</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-19.803000000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>-30.623999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>35.918999999999997</v>
+      </c>
+      <c r="D69">
+        <v>821.58299999999997</v>
+      </c>
+      <c r="E69">
+        <v>459.76100000000002</v>
+      </c>
+      <c r="F69">
+        <v>321.02199999999999</v>
+      </c>
+      <c r="G69">
+        <v>1608.2080000000001</v>
+      </c>
+      <c r="H69">
+        <v>6478.08</v>
+      </c>
+      <c r="I69">
+        <v>212.75</v>
+      </c>
+      <c r="J69">
+        <v>989.69200000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>423.00200000000001</v>
+      </c>
+      <c r="O69">
+        <v>1573.5039999999999</v>
+      </c>
+      <c r="P69">
+        <v>989.69200000000001</v>
+      </c>
+      <c r="Q69">
+        <v>62.253</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>8800</v>
+      </c>
+      <c r="T69">
+        <v>4904.576</v>
+      </c>
+      <c r="U69">
+        <v>574.87300000000005</v>
+      </c>
+      <c r="V69">
+        <v>219.858</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-60.26</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>35.918999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-33.082000000000001</v>
+      </c>
+      <c r="D70">
+        <v>845.73900000000003</v>
+      </c>
+      <c r="E70">
+        <v>448.84800000000001</v>
+      </c>
+      <c r="F70">
+        <v>336.92700000000002</v>
+      </c>
+      <c r="G70">
+        <v>1814.1659999999999</v>
+      </c>
+      <c r="H70">
+        <v>6526.6469999999999</v>
+      </c>
+      <c r="I70">
+        <v>192.04599999999999</v>
+      </c>
+      <c r="J70">
+        <v>1088.73</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>384.51799999999997</v>
+      </c>
+      <c r="O70">
+        <v>1705.569</v>
+      </c>
+      <c r="P70">
+        <v>1088.73</v>
+      </c>
+      <c r="Q70">
+        <v>266.45800000000003</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>8500</v>
+      </c>
+      <c r="T70">
+        <v>4821.0780000000004</v>
+      </c>
+      <c r="U70">
+        <v>841.32600000000002</v>
+      </c>
+      <c r="V70">
+        <v>270.06799999999998</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>27.003</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-33.082000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-12.500999999999999</v>
+      </c>
+      <c r="D71">
+        <v>665.38300000000004</v>
+      </c>
+      <c r="E71">
+        <v>345.95699999999999</v>
+      </c>
+      <c r="F71">
+        <v>252.64</v>
+      </c>
+      <c r="G71">
+        <v>1843.8050000000001</v>
+      </c>
+      <c r="H71">
+        <v>6381.5190000000002</v>
+      </c>
+      <c r="I71">
+        <v>213.19300000000001</v>
+      </c>
+      <c r="J71">
+        <v>983.29</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>441.279</v>
+      </c>
+      <c r="O71">
+        <v>1605.9549999999999</v>
+      </c>
+      <c r="P71">
+        <v>983.29</v>
+      </c>
+      <c r="Q71">
+        <v>84.721000000000004</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>8300</v>
+      </c>
+      <c r="T71">
+        <v>4775.5640000000003</v>
+      </c>
+      <c r="U71">
+        <v>926.03700000000003</v>
+      </c>
+      <c r="V71">
+        <v>258.95800000000003</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-143.78800000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>-12.500999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-29.992999999999999</v>
+      </c>
+      <c r="D72">
+        <v>692.67</v>
+      </c>
+      <c r="E72">
+        <v>360.85700000000003</v>
+      </c>
+      <c r="F72">
+        <v>236.733</v>
+      </c>
+      <c r="G72">
+        <v>1367.7059999999999</v>
+      </c>
+      <c r="H72">
+        <v>5782.3320000000003</v>
+      </c>
+      <c r="I72">
+        <v>219.143</v>
+      </c>
+      <c r="J72">
+        <v>558.28</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-458.17200000000003</v>
+      </c>
+      <c r="N72">
+        <v>403.36399999999998</v>
+      </c>
+      <c r="O72">
+        <v>1104.2270000000001</v>
+      </c>
+      <c r="P72">
+        <v>558.28</v>
+      </c>
+      <c r="Q72">
+        <v>-592.01800000000003</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>8100</v>
+      </c>
+      <c r="T72">
+        <v>4678.1049999999996</v>
+      </c>
+      <c r="U72">
+        <v>334.03899999999999</v>
+      </c>
+      <c r="V72">
+        <v>75.259</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-555.303</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-57.728999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>-29.992999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>32.084000000000003</v>
+      </c>
+      <c r="D73">
+        <v>884.44299999999998</v>
+      </c>
+      <c r="E73">
+        <v>491.18299999999999</v>
+      </c>
+      <c r="F73">
+        <v>353.51400000000001</v>
+      </c>
+      <c r="G73">
+        <v>1619.77</v>
+      </c>
+      <c r="H73">
+        <v>5947.0609999999997</v>
+      </c>
+      <c r="I73">
+        <v>229.00899999999999</v>
+      </c>
+      <c r="J73">
+        <v>735.09799999999996</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>462.38299999999998</v>
+      </c>
+      <c r="O73">
+        <v>1314.924</v>
+      </c>
+      <c r="P73">
+        <v>735.09799999999996</v>
+      </c>
+      <c r="Q73">
+        <v>223.88399999999999</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>8200</v>
+      </c>
+      <c r="T73">
+        <v>4632.1369999999997</v>
+      </c>
+      <c r="U73">
+        <v>557.92399999999998</v>
+      </c>
+      <c r="V73">
+        <v>214.53700000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>32.344000000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>58.131999999999998</v>
+      </c>
+      <c r="AA73">
+        <v>32.084000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>69.516999999999996</v>
+      </c>
+      <c r="D74">
+        <v>832.33</v>
+      </c>
+      <c r="E74">
+        <v>420.90300000000002</v>
+      </c>
+      <c r="F74">
+        <v>341.44299999999998</v>
+      </c>
+      <c r="G74">
+        <v>1615.5360000000001</v>
+      </c>
+      <c r="H74">
+        <v>5806.2910000000002</v>
+      </c>
+      <c r="I74">
+        <v>229.26599999999999</v>
+      </c>
+      <c r="J74">
+        <v>714.40200000000004</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>413.93200000000002</v>
+      </c>
+      <c r="O74">
+        <v>1228.971</v>
+      </c>
+      <c r="P74">
+        <v>714.40200000000004</v>
+      </c>
+      <c r="Q74">
+        <v>91.796000000000006</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>8300</v>
+      </c>
+      <c r="T74">
+        <v>4577.32</v>
+      </c>
+      <c r="U74">
+        <v>649.71100000000001</v>
+      </c>
+      <c r="V74">
+        <v>333.22300000000001</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-168.56700000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>69.516999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>61.517000000000003</v>
+      </c>
+      <c r="D75">
+        <v>680.88199999999995</v>
+      </c>
+      <c r="E75">
+        <v>378.17200000000003</v>
+      </c>
+      <c r="F75">
+        <v>284.839</v>
+      </c>
+      <c r="G75">
+        <v>1684.8409999999999</v>
+      </c>
+      <c r="H75">
+        <v>5808.0240000000003</v>
+      </c>
+      <c r="I75">
+        <v>233.30699999999999</v>
+      </c>
+      <c r="J75">
+        <v>919.19</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>435.61399999999998</v>
+      </c>
+      <c r="O75">
+        <v>1448.345</v>
+      </c>
+      <c r="P75">
+        <v>921.01499999999999</v>
+      </c>
+      <c r="Q75">
+        <v>61.317999999999998</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>8100</v>
+      </c>
+      <c r="T75">
+        <v>4359.6790000000001</v>
+      </c>
+      <c r="U75">
+        <v>711.03499999999997</v>
+      </c>
+      <c r="V75">
+        <v>187.345</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-85.138000000000005</v>
+      </c>
+      <c r="Y75">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="Z75">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AA75">
+        <v>61.517000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>39.540999999999997</v>
+      </c>
+      <c r="D76">
+        <v>775.59799999999996</v>
+      </c>
+      <c r="E76">
+        <v>326.714</v>
+      </c>
+      <c r="F76">
+        <v>312.06200000000001</v>
+      </c>
+      <c r="G76">
+        <v>1556.8330000000001</v>
+      </c>
+      <c r="H76">
+        <v>5926.3810000000003</v>
+      </c>
+      <c r="I76">
+        <v>224.73500000000001</v>
+      </c>
+      <c r="J76">
+        <v>1016.28</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>452.14600000000002</v>
+      </c>
+      <c r="O76">
+        <v>1589.038</v>
+      </c>
+      <c r="P76">
+        <v>1093.462</v>
+      </c>
+      <c r="Q76">
+        <v>-81.432000000000002</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4337.3429999999998</v>
+      </c>
+      <c r="U76">
+        <v>629.59900000000005</v>
+      </c>
+      <c r="V76">
+        <v>257.11799999999999</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>62.395000000000003</v>
+      </c>
+      <c r="Z76">
+        <v>1.95</v>
+      </c>
+      <c r="AA76">
+        <v>39.540999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>83.037999999999997</v>
+      </c>
+      <c r="D77">
+        <v>806.69799999999998</v>
+      </c>
+      <c r="E77">
+        <v>405.108</v>
+      </c>
+      <c r="F77">
+        <v>330.19400000000002</v>
+      </c>
+      <c r="G77">
+        <v>1551.8140000000001</v>
+      </c>
+      <c r="H77">
+        <v>5848.5709999999999</v>
+      </c>
+      <c r="I77">
+        <v>213.93600000000001</v>
+      </c>
+      <c r="J77">
+        <v>1013.94</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>449.62900000000002</v>
+      </c>
+      <c r="O77">
+        <v>1583.077</v>
+      </c>
+      <c r="P77">
+        <v>1090.184</v>
+      </c>
+      <c r="Q77">
+        <v>-42.709000000000003</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4265.4939999999997</v>
+      </c>
+      <c r="U77">
+        <v>586.79399999999998</v>
+      </c>
+      <c r="V77">
+        <v>173.41200000000001</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-170.143</v>
+      </c>
+      <c r="Y77">
+        <v>59.045999999999999</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>83.037999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>161.35599999999999</v>
+      </c>
+      <c r="D78">
+        <v>869.07299999999998</v>
+      </c>
+      <c r="E78">
+        <v>409.83499999999998</v>
+      </c>
+      <c r="F78">
+        <v>375.87200000000001</v>
+      </c>
+      <c r="G78">
+        <v>2067.672</v>
+      </c>
+      <c r="H78">
+        <v>6519.5029999999997</v>
+      </c>
+      <c r="I78">
+        <v>239.18</v>
+      </c>
+      <c r="J78">
+        <v>1566.6030000000001</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>491.20499999999998</v>
+      </c>
+      <c r="O78">
+        <v>2180.1260000000002</v>
+      </c>
+      <c r="P78">
+        <v>1642.1279999999999</v>
+      </c>
+      <c r="Q78">
+        <v>510.93900000000002</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>4339.3770000000004</v>
+      </c>
+      <c r="U78">
+        <v>1097.7239999999999</v>
+      </c>
+      <c r="V78">
+        <v>300.721</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>445.42500000000001</v>
+      </c>
+      <c r="Y78">
+        <v>56.954999999999998</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>161.35599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>50.39</v>
+      </c>
+      <c r="D79">
+        <v>787.77200000000005</v>
+      </c>
+      <c r="E79">
+        <v>367.17200000000003</v>
+      </c>
+      <c r="F79">
+        <v>337.75900000000001</v>
+      </c>
+      <c r="G79">
+        <v>1690.502</v>
+      </c>
+      <c r="H79">
+        <v>6560.6819999999998</v>
+      </c>
+      <c r="I79">
+        <v>246.95400000000001</v>
+      </c>
+      <c r="J79">
+        <v>1566.808</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>539.00300000000004</v>
+      </c>
+      <c r="O79">
+        <v>2268.0169999999998</v>
+      </c>
+      <c r="P79">
+        <v>1648.1179999999999</v>
+      </c>
+      <c r="Q79">
+        <v>-382.56799999999998</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>7900</v>
+      </c>
+      <c r="T79">
+        <v>4292.665</v>
+      </c>
+      <c r="U79">
+        <v>714.93899999999996</v>
+      </c>
+      <c r="V79">
+        <v>214.39500000000001</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-113.589</v>
+      </c>
+      <c r="Y79">
+        <v>58.5</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>50.39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>96.921999999999997</v>
+      </c>
+      <c r="D80">
+        <v>787.45100000000002</v>
+      </c>
+      <c r="E80">
+        <v>325.99299999999999</v>
+      </c>
+      <c r="F80">
+        <v>325.78899999999999</v>
+      </c>
+      <c r="G80">
+        <v>2079.3290000000002</v>
+      </c>
+      <c r="H80">
+        <v>6882.6859999999997</v>
+      </c>
+      <c r="I80">
+        <v>225.905</v>
+      </c>
+      <c r="J80">
+        <v>1867.6859999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>-1.25</v>
+      </c>
+      <c r="N80">
+        <v>509.33199999999999</v>
+      </c>
+      <c r="O80">
+        <v>2531.4409999999998</v>
+      </c>
+      <c r="P80">
+        <v>1876.0889999999999</v>
+      </c>
+      <c r="Q80">
+        <v>421.28199999999998</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4351.2449999999999</v>
+      </c>
+      <c r="U80">
+        <v>1136.3019999999999</v>
+      </c>
+      <c r="V80">
+        <v>214.28100000000001</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>229.84100000000001</v>
+      </c>
+      <c r="Y80">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>96.921999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>136.917</v>
+      </c>
+      <c r="D81">
+        <v>1060.2919999999999</v>
+      </c>
+      <c r="E81">
+        <v>485.1</v>
+      </c>
+      <c r="F81">
+        <v>491.55</v>
+      </c>
+      <c r="G81">
+        <v>3062.7260000000001</v>
+      </c>
+      <c r="H81">
+        <v>7824.4219999999996</v>
+      </c>
+      <c r="I81">
+        <v>242.14699999999999</v>
+      </c>
+      <c r="J81">
+        <v>1762.79</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1477.0170000000001</v>
+      </c>
+      <c r="O81">
+        <v>3417.2559999999999</v>
+      </c>
+      <c r="P81">
+        <v>2669.482</v>
+      </c>
+      <c r="Q81">
+        <v>864.01300000000003</v>
+      </c>
+      <c r="R81">
+        <v>44107</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4407.1660000000002</v>
+      </c>
+      <c r="U81">
+        <v>2000.2570000000001</v>
+      </c>
+      <c r="V81">
+        <v>280.96800000000002</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>670.59400000000005</v>
+      </c>
+      <c r="Y81">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>136.917</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>201.035</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1094.8340000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>507.07799999999997</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>537.75199999999995</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2322.2570000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7041.3779999999997</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>301.57600000000002</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1742.146</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>613.89800000000002</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>2537.6770000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1748.885</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-765.98699999999997</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44198</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>4503.701</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1234.415</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>403.67500000000001</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-1141.3230000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>1.6479999999999999</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>201.035</v>
       </c>
     </row>
